--- a/tools/luban/Datas/Quests.xlsx
+++ b/tools/luban/Datas/Quests.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\tools\luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F6DDB7-199A-48E2-BB1A-5F74CD56297D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8088D529-33F2-4D28-9E53-BDC13617EF3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="106">
   <si>
     <t>##var</t>
   </si>
@@ -123,14 +123,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Coins</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Xp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>击杀 15 个怪物</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -373,6 +365,18 @@
   </si>
   <si>
     <t>击杀 95 个怪物</t>
+  </si>
+  <si>
+    <t>金币</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RewardType.Reward</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -765,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="F98" sqref="F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -819,7 +823,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>5</v>
+        <v>104</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>4</v>
@@ -874,7 +878,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="G5" s="3">
         <v>100</v>
@@ -895,7 +899,7 @@
         <v>5</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="G6" s="3">
         <v>100</v>
@@ -916,7 +920,7 @@
         <v>10</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="G7" s="3">
         <v>100</v>
@@ -928,7 +932,7 @@
         <v>5004</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>14</v>
@@ -937,7 +941,7 @@
         <v>15</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="G8" s="3">
         <v>100</v>
@@ -958,7 +962,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="G9" s="3">
         <v>100</v>
@@ -979,7 +983,7 @@
         <v>5</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="G10" s="3">
         <v>100</v>
@@ -1000,7 +1004,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="G11" s="3">
         <v>100</v>
@@ -1012,7 +1016,7 @@
         <v>5008</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>14</v>
@@ -1021,7 +1025,7 @@
         <v>15</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="G12" s="3">
         <v>100</v>
@@ -1042,7 +1046,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="G13" s="3">
         <v>100</v>
@@ -1063,7 +1067,7 @@
         <v>5</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="G14" s="3">
         <v>100</v>
@@ -1084,7 +1088,7 @@
         <v>10</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="G15" s="3">
         <v>100</v>
@@ -1096,7 +1100,7 @@
         <v>5012</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>14</v>
@@ -1105,7 +1109,7 @@
         <v>15</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="G16" s="3">
         <v>100</v>
@@ -1126,7 +1130,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="G17" s="3">
         <v>100</v>
@@ -1147,7 +1151,7 @@
         <v>5</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="G18" s="3">
         <v>100</v>
@@ -1168,7 +1172,7 @@
         <v>10</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="G19" s="3">
         <v>100</v>
@@ -1180,7 +1184,7 @@
         <v>5016</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>14</v>
@@ -1189,7 +1193,7 @@
         <v>15</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="G20" s="3">
         <v>100</v>
@@ -1201,7 +1205,7 @@
         <v>5017</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>14</v>
@@ -1210,7 +1214,7 @@
         <v>16</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="G21" s="3">
         <v>101</v>
@@ -1222,7 +1226,7 @@
         <v>5018</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>14</v>
@@ -1231,7 +1235,7 @@
         <v>17</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="G22" s="3">
         <v>102</v>
@@ -1243,7 +1247,7 @@
         <v>5019</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>14</v>
@@ -1252,7 +1256,7 @@
         <v>18</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="G23" s="3">
         <v>103</v>
@@ -1264,7 +1268,7 @@
         <v>5020</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>14</v>
@@ -1273,7 +1277,7 @@
         <v>19</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="G24" s="3">
         <v>104</v>
@@ -1285,7 +1289,7 @@
         <v>5021</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>14</v>
@@ -1294,7 +1298,7 @@
         <v>20</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="G25" s="3">
         <v>105</v>
@@ -1306,7 +1310,7 @@
         <v>5022</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>14</v>
@@ -1315,7 +1319,7 @@
         <v>21</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="G26" s="3">
         <v>106</v>
@@ -1327,7 +1331,7 @@
         <v>5023</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>14</v>
@@ -1336,7 +1340,7 @@
         <v>22</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="G27" s="3">
         <v>107</v>
@@ -1348,7 +1352,7 @@
         <v>5024</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>14</v>
@@ -1357,7 +1361,7 @@
         <v>23</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="G28" s="3">
         <v>108</v>
@@ -1369,7 +1373,7 @@
         <v>5025</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>14</v>
@@ -1378,7 +1382,7 @@
         <v>24</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="G29" s="3">
         <v>109</v>
@@ -1390,7 +1394,7 @@
         <v>5026</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>14</v>
@@ -1399,7 +1403,7 @@
         <v>25</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="G30" s="3">
         <v>110</v>
@@ -1411,7 +1415,7 @@
         <v>5027</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>14</v>
@@ -1420,7 +1424,7 @@
         <v>26</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="G31" s="3">
         <v>111</v>
@@ -1432,7 +1436,7 @@
         <v>5028</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>14</v>
@@ -1441,7 +1445,7 @@
         <v>27</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="G32" s="3">
         <v>112</v>
@@ -1453,7 +1457,7 @@
         <v>5029</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>14</v>
@@ -1462,7 +1466,7 @@
         <v>28</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="G33" s="3">
         <v>113</v>
@@ -1474,7 +1478,7 @@
         <v>5030</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>14</v>
@@ -1483,7 +1487,7 @@
         <v>29</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="G34" s="3">
         <v>114</v>
@@ -1495,7 +1499,7 @@
         <v>5031</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>14</v>
@@ -1504,7 +1508,7 @@
         <v>30</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="G35" s="3">
         <v>115</v>
@@ -1516,7 +1520,7 @@
         <v>5032</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>14</v>
@@ -1525,7 +1529,7 @@
         <v>31</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="G36" s="3">
         <v>116</v>
@@ -1537,7 +1541,7 @@
         <v>5033</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>14</v>
@@ -1546,7 +1550,7 @@
         <v>32</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="G37" s="3">
         <v>117</v>
@@ -1558,7 +1562,7 @@
         <v>5034</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>14</v>
@@ -1567,7 +1571,7 @@
         <v>33</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="G38" s="3">
         <v>118</v>
@@ -1579,7 +1583,7 @@
         <v>5035</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>14</v>
@@ -1588,7 +1592,7 @@
         <v>34</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="G39" s="3">
         <v>119</v>
@@ -1600,7 +1604,7 @@
         <v>5036</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>14</v>
@@ -1609,7 +1613,7 @@
         <v>35</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="G40" s="3">
         <v>120</v>
@@ -1621,7 +1625,7 @@
         <v>5037</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>14</v>
@@ -1630,7 +1634,7 @@
         <v>36</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="G41" s="3">
         <v>121</v>
@@ -1642,7 +1646,7 @@
         <v>5038</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>14</v>
@@ -1651,7 +1655,7 @@
         <v>37</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="G42" s="3">
         <v>122</v>
@@ -1663,7 +1667,7 @@
         <v>5039</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>14</v>
@@ -1672,7 +1676,7 @@
         <v>38</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="G43" s="3">
         <v>123</v>
@@ -1684,7 +1688,7 @@
         <v>5040</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>14</v>
@@ -1693,7 +1697,7 @@
         <v>39</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="G44" s="3">
         <v>124</v>
@@ -1705,7 +1709,7 @@
         <v>5041</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>14</v>
@@ -1714,7 +1718,7 @@
         <v>40</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="G45" s="3">
         <v>125</v>
@@ -1726,7 +1730,7 @@
         <v>5042</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>14</v>
@@ -1735,7 +1739,7 @@
         <v>41</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="G46" s="3">
         <v>126</v>
@@ -1747,7 +1751,7 @@
         <v>5043</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>14</v>
@@ -1756,7 +1760,7 @@
         <v>42</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="G47" s="3">
         <v>127</v>
@@ -1768,7 +1772,7 @@
         <v>5044</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>14</v>
@@ -1777,7 +1781,7 @@
         <v>43</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="G48" s="3">
         <v>128</v>
@@ -1789,7 +1793,7 @@
         <v>5045</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>14</v>
@@ -1798,7 +1802,7 @@
         <v>44</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="G49" s="3">
         <v>129</v>
@@ -1810,7 +1814,7 @@
         <v>5046</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>14</v>
@@ -1819,7 +1823,7 @@
         <v>45</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="G50" s="3">
         <v>130</v>
@@ -1831,7 +1835,7 @@
         <v>5047</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>14</v>
@@ -1840,7 +1844,7 @@
         <v>46</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="G51" s="3">
         <v>131</v>
@@ -1852,7 +1856,7 @@
         <v>5048</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>14</v>
@@ -1861,7 +1865,7 @@
         <v>47</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="G52" s="3">
         <v>132</v>
@@ -1873,7 +1877,7 @@
         <v>5049</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>14</v>
@@ -1882,7 +1886,7 @@
         <v>48</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="G53" s="3">
         <v>133</v>
@@ -1894,7 +1898,7 @@
         <v>5050</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>14</v>
@@ -1903,7 +1907,7 @@
         <v>49</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="G54" s="3">
         <v>134</v>
@@ -1915,7 +1919,7 @@
         <v>5051</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>14</v>
@@ -1924,7 +1928,7 @@
         <v>50</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="G55" s="3">
         <v>135</v>
@@ -1936,7 +1940,7 @@
         <v>5052</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>14</v>
@@ -1945,7 +1949,7 @@
         <v>51</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="G56" s="3">
         <v>136</v>
@@ -1957,7 +1961,7 @@
         <v>5053</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>14</v>
@@ -1966,7 +1970,7 @@
         <v>52</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="G57" s="3">
         <v>137</v>
@@ -1978,7 +1982,7 @@
         <v>5054</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>14</v>
@@ -1987,7 +1991,7 @@
         <v>53</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="G58" s="3">
         <v>138</v>
@@ -1999,7 +2003,7 @@
         <v>5055</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>14</v>
@@ -2008,7 +2012,7 @@
         <v>54</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="G59" s="3">
         <v>139</v>
@@ -2020,7 +2024,7 @@
         <v>5056</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>14</v>
@@ -2029,7 +2033,7 @@
         <v>55</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="G60" s="3">
         <v>140</v>
@@ -2041,7 +2045,7 @@
         <v>5057</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>14</v>
@@ -2050,7 +2054,7 @@
         <v>56</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="G61" s="3">
         <v>141</v>
@@ -2062,7 +2066,7 @@
         <v>5058</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>14</v>
@@ -2071,7 +2075,7 @@
         <v>57</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="G62" s="3">
         <v>142</v>
@@ -2083,7 +2087,7 @@
         <v>5059</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>14</v>
@@ -2092,7 +2096,7 @@
         <v>58</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="G63" s="3">
         <v>143</v>
@@ -2104,7 +2108,7 @@
         <v>5060</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>14</v>
@@ -2113,7 +2117,7 @@
         <v>59</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="G64" s="3">
         <v>144</v>
@@ -2125,7 +2129,7 @@
         <v>5061</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>14</v>
@@ -2134,7 +2138,7 @@
         <v>60</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="G65" s="3">
         <v>145</v>
@@ -2146,7 +2150,7 @@
         <v>5062</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>14</v>
@@ -2155,7 +2159,7 @@
         <v>61</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="G66" s="3">
         <v>146</v>
@@ -2167,7 +2171,7 @@
         <v>5063</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>14</v>
@@ -2176,7 +2180,7 @@
         <v>62</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="G67" s="3">
         <v>147</v>
@@ -2188,7 +2192,7 @@
         <v>5064</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>14</v>
@@ -2197,7 +2201,7 @@
         <v>63</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="G68" s="3">
         <v>148</v>
@@ -2209,7 +2213,7 @@
         <v>5065</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>14</v>
@@ -2218,7 +2222,7 @@
         <v>64</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="G69" s="3">
         <v>149</v>
@@ -2230,7 +2234,7 @@
         <v>5066</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>14</v>
@@ -2239,7 +2243,7 @@
         <v>65</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="G70" s="3">
         <v>150</v>
@@ -2251,7 +2255,7 @@
         <v>5067</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>14</v>
@@ -2260,7 +2264,7 @@
         <v>66</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="G71" s="3">
         <v>151</v>
@@ -2272,7 +2276,7 @@
         <v>5068</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>14</v>
@@ -2281,7 +2285,7 @@
         <v>67</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="G72" s="3">
         <v>152</v>
@@ -2293,7 +2297,7 @@
         <v>5069</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>14</v>
@@ -2302,7 +2306,7 @@
         <v>68</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="G73" s="3">
         <v>153</v>
@@ -2314,7 +2318,7 @@
         <v>5070</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>14</v>
@@ -2323,7 +2327,7 @@
         <v>69</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="G74" s="3">
         <v>154</v>
@@ -2335,7 +2339,7 @@
         <v>5071</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>14</v>
@@ -2344,7 +2348,7 @@
         <v>70</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="G75" s="3">
         <v>155</v>
@@ -2356,7 +2360,7 @@
         <v>5072</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>14</v>
@@ -2365,7 +2369,7 @@
         <v>71</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="G76" s="3">
         <v>156</v>
@@ -2377,7 +2381,7 @@
         <v>5073</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>14</v>
@@ -2386,7 +2390,7 @@
         <v>72</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="G77" s="3">
         <v>157</v>
@@ -2398,7 +2402,7 @@
         <v>5074</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>14</v>
@@ -2407,7 +2411,7 @@
         <v>73</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="G78" s="3">
         <v>158</v>
@@ -2419,7 +2423,7 @@
         <v>5075</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>14</v>
@@ -2428,7 +2432,7 @@
         <v>74</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="G79" s="3">
         <v>159</v>
@@ -2440,7 +2444,7 @@
         <v>5076</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>14</v>
@@ -2449,7 +2453,7 @@
         <v>75</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="G80" s="3">
         <v>160</v>
@@ -2461,7 +2465,7 @@
         <v>5077</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>14</v>
@@ -2470,7 +2474,7 @@
         <v>76</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="G81" s="3">
         <v>161</v>
@@ -2482,7 +2486,7 @@
         <v>5078</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>14</v>
@@ -2491,7 +2495,7 @@
         <v>77</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="G82" s="3">
         <v>162</v>
@@ -2503,7 +2507,7 @@
         <v>5079</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>14</v>
@@ -2512,7 +2516,7 @@
         <v>78</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="G83" s="3">
         <v>163</v>
@@ -2524,7 +2528,7 @@
         <v>5080</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>14</v>
@@ -2533,7 +2537,7 @@
         <v>79</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="G84" s="3">
         <v>164</v>
@@ -2545,7 +2549,7 @@
         <v>5081</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>14</v>
@@ -2554,7 +2558,7 @@
         <v>80</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="G85" s="3">
         <v>165</v>
@@ -2566,7 +2570,7 @@
         <v>5082</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>14</v>
@@ -2575,7 +2579,7 @@
         <v>81</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="G86" s="3">
         <v>166</v>
@@ -2587,7 +2591,7 @@
         <v>5083</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>14</v>
@@ -2596,7 +2600,7 @@
         <v>82</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="G87" s="3">
         <v>167</v>
@@ -2608,7 +2612,7 @@
         <v>5084</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>14</v>
@@ -2617,7 +2621,7 @@
         <v>83</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="G88" s="3">
         <v>168</v>
@@ -2629,7 +2633,7 @@
         <v>5085</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>14</v>
@@ -2638,7 +2642,7 @@
         <v>84</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="G89" s="3">
         <v>169</v>
@@ -2650,7 +2654,7 @@
         <v>5086</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>14</v>
@@ -2659,7 +2663,7 @@
         <v>85</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="G90" s="3">
         <v>170</v>
@@ -2671,7 +2675,7 @@
         <v>5087</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>14</v>
@@ -2680,7 +2684,7 @@
         <v>86</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="G91" s="3">
         <v>171</v>
@@ -2692,7 +2696,7 @@
         <v>5088</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>14</v>
@@ -2701,7 +2705,7 @@
         <v>87</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="G92" s="3">
         <v>172</v>
@@ -2713,7 +2717,7 @@
         <v>5089</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>14</v>
@@ -2722,7 +2726,7 @@
         <v>88</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="G93" s="3">
         <v>173</v>
@@ -2734,7 +2738,7 @@
         <v>5090</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>14</v>
@@ -2743,7 +2747,7 @@
         <v>89</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="G94" s="3">
         <v>174</v>
@@ -2755,7 +2759,7 @@
         <v>5091</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>14</v>
@@ -2764,7 +2768,7 @@
         <v>90</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="G95" s="3">
         <v>175</v>
@@ -2776,7 +2780,7 @@
         <v>5092</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>14</v>
@@ -2785,7 +2789,7 @@
         <v>91</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="G96" s="3">
         <v>176</v>
@@ -2797,7 +2801,7 @@
         <v>5093</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>14</v>
@@ -2806,7 +2810,7 @@
         <v>92</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="G97" s="3">
         <v>177</v>
@@ -2818,7 +2822,7 @@
         <v>5094</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>14</v>
@@ -2827,7 +2831,7 @@
         <v>93</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="G98" s="3">
         <v>178</v>
@@ -2839,7 +2843,7 @@
         <v>5095</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>14</v>
@@ -2848,7 +2852,7 @@
         <v>94</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="G99" s="3">
         <v>179</v>
@@ -2860,7 +2864,7 @@
         <v>5096</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>14</v>
@@ -2869,7 +2873,7 @@
         <v>95</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="G100" s="3">
         <v>180</v>

--- a/tools/luban/Datas/Quests.xlsx
+++ b/tools/luban/Datas/Quests.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\tools\luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8088D529-33F2-4D28-9E53-BDC13617EF3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D44732-FD0C-49A3-B412-E1E6DB27818A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="MainLine" sheetId="1" r:id="rId1"/>
+    <sheet name="AllQuests" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="146">
   <si>
     <t>##var</t>
   </si>
@@ -377,6 +378,155 @@
   <si>
     <t>经验</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>array,int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>*reward_list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reward.Reward</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>##var</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reward_value</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励列表（随机挑一个）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>quest_value_range</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务值范围</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quests.EQuestType</t>
+  </si>
+  <si>
+    <t>击杀 {s} 只怪物。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>array,RewardRange.Reward</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白钱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝钱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫钱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄钱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>传奇装备</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>神恩石</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>神恩石碎片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>打造装备</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战地牢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战地牢并成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽卡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爬塔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得传奇装备</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用血瓶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用蓝瓶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回收装备</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>打造 {s} 次装备</t>
+  </si>
+  <si>
+    <t>升级 {s} 级</t>
+  </si>
+  <si>
+    <t>挑战 {s} 次地牢</t>
+  </si>
+  <si>
+    <t>挑战 {s} 次地牢并成功</t>
+  </si>
+  <si>
+    <t>抽 {s} 次卡</t>
+  </si>
+  <si>
+    <t>爬塔 {s} 层</t>
+  </si>
+  <si>
+    <t>回收 {s} 次装备</t>
+  </si>
+  <si>
+    <t>获得 {s} 个传奇装备</t>
+  </si>
+  <si>
+    <t>使用 {s} 次血瓶</t>
+  </si>
+  <si>
+    <t>使用 {s} 次蓝瓶</t>
   </si>
 </sst>
 </file>
@@ -414,7 +564,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -433,8 +583,44 @@
         <bgColor theme="0" tint="-0.34998626667073579"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor theme="0" tint="-0.34998626667073579"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor theme="0" tint="-0.34998626667073579"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor theme="0" tint="-0.34998626667073579"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -466,11 +652,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -487,6 +726,66 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -769,8 +1068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F98" sqref="F98"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2883,4 +3182,2877 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E90DCC31-42D3-4702-A219-47AD15A7D98E}">
+  <dimension ref="A1:I221"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.75" style="31" customWidth="1"/>
+    <col min="5" max="5" width="5.75" customWidth="1"/>
+    <col min="6" max="6" width="6.875" customWidth="1"/>
+    <col min="7" max="7" width="8.625" customWidth="1"/>
+    <col min="8" max="8" width="13.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" s="9"/>
+      <c r="G1" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+    </row>
+    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" s="11"/>
+      <c r="G2" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+    </row>
+    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+    </row>
+    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F4" s="15"/>
+      <c r="G4" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+    </row>
+    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="I5" s="25"/>
+    </row>
+    <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="I6" s="27"/>
+    </row>
+    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3">
+        <v>1001</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="3">
+        <v>10</v>
+      </c>
+      <c r="F7" s="3">
+        <v>100</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H7" s="3">
+        <v>100</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3">
+        <v>1002</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
+        <v>10</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1</v>
+      </c>
+      <c r="I11" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1</v>
+      </c>
+      <c r="I12" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H13" s="3">
+        <v>1</v>
+      </c>
+      <c r="I13" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1</v>
+      </c>
+      <c r="I14" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1</v>
+      </c>
+      <c r="I15" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3">
+        <v>1003</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3">
+        <v>2</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1</v>
+      </c>
+      <c r="I16" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1</v>
+      </c>
+      <c r="I17" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3">
+        <v>1004</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3">
+        <v>10</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1</v>
+      </c>
+      <c r="I18" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="H19" s="3">
+        <v>1</v>
+      </c>
+      <c r="I19" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1</v>
+      </c>
+      <c r="I20" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3">
+        <v>1005</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3">
+        <v>10</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H21" s="3">
+        <v>1</v>
+      </c>
+      <c r="I21" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1</v>
+      </c>
+      <c r="I22" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H23" s="3">
+        <v>1</v>
+      </c>
+      <c r="I23" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H24" s="3">
+        <v>1</v>
+      </c>
+      <c r="I24" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3">
+        <v>1006</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1</v>
+      </c>
+      <c r="F25" s="3">
+        <v>10</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H25" s="3">
+        <v>1</v>
+      </c>
+      <c r="I25" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H26" s="3">
+        <v>1</v>
+      </c>
+      <c r="I26" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H27" s="3">
+        <v>1</v>
+      </c>
+      <c r="I27" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H28" s="3">
+        <v>1</v>
+      </c>
+      <c r="I28" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="H29" s="3">
+        <v>1</v>
+      </c>
+      <c r="I29" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H30" s="3">
+        <v>1</v>
+      </c>
+      <c r="I30" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H31" s="3">
+        <v>1</v>
+      </c>
+      <c r="I31" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3">
+        <v>1007</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1</v>
+      </c>
+      <c r="F32" s="3">
+        <v>30</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H32" s="3">
+        <v>1</v>
+      </c>
+      <c r="I32" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H33" s="3">
+        <v>1</v>
+      </c>
+      <c r="I33" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H34" s="3">
+        <v>1</v>
+      </c>
+      <c r="I34" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="H35" s="3">
+        <v>1</v>
+      </c>
+      <c r="I35" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3">
+        <v>1008</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D36" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="E36" s="3">
+        <v>1</v>
+      </c>
+      <c r="F36" s="3">
+        <v>30</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H36" s="3">
+        <v>1</v>
+      </c>
+      <c r="I36" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H37" s="3">
+        <v>1</v>
+      </c>
+      <c r="I37" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H38" s="3">
+        <v>1</v>
+      </c>
+      <c r="I38" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H39" s="3">
+        <v>1</v>
+      </c>
+      <c r="I39" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="H40" s="3">
+        <v>1</v>
+      </c>
+      <c r="I40" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3">
+        <v>1009</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D41" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1</v>
+      </c>
+      <c r="F41" s="3">
+        <v>30</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="H41" s="3">
+        <v>1</v>
+      </c>
+      <c r="I41" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H42" s="3">
+        <v>1</v>
+      </c>
+      <c r="I42" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3">
+        <v>1010</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D43" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1</v>
+      </c>
+      <c r="F43" s="3">
+        <v>30</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H43" s="3">
+        <v>1</v>
+      </c>
+      <c r="I43" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H44" s="3">
+        <v>1</v>
+      </c>
+      <c r="I44" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3">
+        <v>1011</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D45" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1</v>
+      </c>
+      <c r="F45" s="3">
+        <v>30</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H45" s="3">
+        <v>1</v>
+      </c>
+      <c r="I45" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H46" s="3">
+        <v>1</v>
+      </c>
+      <c r="I46" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+    </row>
+    <row r="48" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+    </row>
+    <row r="49" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+    </row>
+    <row r="50" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+    </row>
+    <row r="51" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+    </row>
+    <row r="52" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+    </row>
+    <row r="53" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+    </row>
+    <row r="54" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+    </row>
+    <row r="55" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+    </row>
+    <row r="56" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+    </row>
+    <row r="57" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+    </row>
+    <row r="58" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="30"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+    </row>
+    <row r="59" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+    </row>
+    <row r="60" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+    </row>
+    <row r="61" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="30"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+    </row>
+    <row r="62" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="30"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+    </row>
+    <row r="63" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="30"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+    </row>
+    <row r="64" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="30"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+    </row>
+    <row r="65" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="30"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+    </row>
+    <row r="66" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="30"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+    </row>
+    <row r="67" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="30"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+    </row>
+    <row r="68" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="30"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+    </row>
+    <row r="69" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="30"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+    </row>
+    <row r="70" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="30"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+    </row>
+    <row r="71" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="30"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+    </row>
+    <row r="72" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="30"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
+    </row>
+    <row r="73" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="30"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+    </row>
+    <row r="74" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="30"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+    </row>
+    <row r="75" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="30"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="3"/>
+    </row>
+    <row r="76" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="30"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
+    </row>
+    <row r="77" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="30"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+      <c r="I77" s="3"/>
+    </row>
+    <row r="78" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="30"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="3"/>
+    </row>
+    <row r="79" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="30"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="3"/>
+    </row>
+    <row r="80" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="30"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
+    </row>
+    <row r="81" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A81" s="3"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="30"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="3"/>
+    </row>
+    <row r="82" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A82" s="3"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="30"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+      <c r="I82" s="3"/>
+    </row>
+    <row r="83" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="30"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+      <c r="I83" s="3"/>
+    </row>
+    <row r="84" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A84" s="3"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="30"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+      <c r="I84" s="3"/>
+    </row>
+    <row r="85" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A85" s="3"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="30"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3"/>
+      <c r="I85" s="3"/>
+    </row>
+    <row r="86" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A86" s="3"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="30"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
+      <c r="I86" s="3"/>
+    </row>
+    <row r="87" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A87" s="3"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="30"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="3"/>
+      <c r="I87" s="3"/>
+    </row>
+    <row r="88" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A88" s="3"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="30"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3"/>
+      <c r="I88" s="3"/>
+    </row>
+    <row r="89" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="30"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3"/>
+      <c r="I89" s="3"/>
+    </row>
+    <row r="90" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A90" s="3"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="30"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
+      <c r="I90" s="3"/>
+    </row>
+    <row r="91" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A91" s="3"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="30"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3"/>
+      <c r="I91" s="3"/>
+    </row>
+    <row r="92" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A92" s="3"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="30"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
+      <c r="I92" s="3"/>
+    </row>
+    <row r="93" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A93" s="3"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="30"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="3"/>
+      <c r="I93" s="3"/>
+    </row>
+    <row r="94" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A94" s="3"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="30"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="3"/>
+      <c r="I94" s="3"/>
+    </row>
+    <row r="95" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A95" s="3"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="30"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="3"/>
+      <c r="I95" s="3"/>
+    </row>
+    <row r="96" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A96" s="3"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="30"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
+      <c r="I96" s="3"/>
+    </row>
+    <row r="97" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A97" s="3"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="30"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
+      <c r="I97" s="3"/>
+    </row>
+    <row r="98" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A98" s="3"/>
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="30"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="3"/>
+      <c r="I98" s="3"/>
+    </row>
+    <row r="99" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A99" s="3"/>
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="30"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="3"/>
+      <c r="I99" s="3"/>
+    </row>
+    <row r="100" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A100" s="3"/>
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="30"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="3"/>
+      <c r="I100" s="3"/>
+    </row>
+    <row r="101" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A101" s="3"/>
+      <c r="B101" s="3"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="30"/>
+      <c r="E101" s="3"/>
+      <c r="F101" s="3"/>
+      <c r="G101" s="3"/>
+      <c r="H101" s="3"/>
+      <c r="I101" s="3"/>
+    </row>
+    <row r="102" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A102" s="3"/>
+      <c r="B102" s="3"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="30"/>
+      <c r="E102" s="3"/>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="3"/>
+      <c r="I102" s="3"/>
+    </row>
+    <row r="103" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A103" s="3"/>
+      <c r="B103" s="3"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="30"/>
+      <c r="E103" s="3"/>
+      <c r="F103" s="3"/>
+      <c r="G103" s="3"/>
+      <c r="H103" s="3"/>
+      <c r="I103" s="3"/>
+    </row>
+    <row r="104" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A104" s="3"/>
+      <c r="B104" s="3"/>
+      <c r="C104" s="3"/>
+      <c r="D104" s="30"/>
+      <c r="E104" s="3"/>
+      <c r="F104" s="3"/>
+      <c r="G104" s="3"/>
+      <c r="H104" s="3"/>
+      <c r="I104" s="3"/>
+    </row>
+    <row r="105" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A105" s="3"/>
+      <c r="B105" s="3"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="30"/>
+      <c r="E105" s="3"/>
+      <c r="F105" s="3"/>
+      <c r="G105" s="3"/>
+      <c r="H105" s="3"/>
+      <c r="I105" s="3"/>
+    </row>
+    <row r="106" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A106" s="3"/>
+      <c r="B106" s="3"/>
+      <c r="C106" s="3"/>
+      <c r="D106" s="30"/>
+      <c r="E106" s="3"/>
+      <c r="F106" s="3"/>
+      <c r="G106" s="3"/>
+      <c r="H106" s="3"/>
+      <c r="I106" s="3"/>
+    </row>
+    <row r="107" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A107" s="3"/>
+      <c r="B107" s="3"/>
+      <c r="C107" s="3"/>
+      <c r="D107" s="30"/>
+      <c r="E107" s="3"/>
+      <c r="F107" s="3"/>
+      <c r="G107" s="3"/>
+      <c r="H107" s="3"/>
+      <c r="I107" s="3"/>
+    </row>
+    <row r="108" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A108" s="3"/>
+      <c r="B108" s="3"/>
+      <c r="C108" s="3"/>
+      <c r="D108" s="30"/>
+      <c r="E108" s="3"/>
+      <c r="F108" s="3"/>
+      <c r="G108" s="3"/>
+      <c r="H108" s="3"/>
+      <c r="I108" s="3"/>
+    </row>
+    <row r="109" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A109" s="3"/>
+      <c r="B109" s="3"/>
+      <c r="C109" s="3"/>
+      <c r="D109" s="30"/>
+      <c r="E109" s="3"/>
+      <c r="F109" s="3"/>
+      <c r="G109" s="3"/>
+      <c r="H109" s="3"/>
+      <c r="I109" s="3"/>
+    </row>
+    <row r="110" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A110" s="3"/>
+      <c r="B110" s="3"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="30"/>
+      <c r="E110" s="3"/>
+      <c r="F110" s="3"/>
+      <c r="G110" s="3"/>
+      <c r="H110" s="3"/>
+      <c r="I110" s="3"/>
+    </row>
+    <row r="111" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A111" s="3"/>
+      <c r="B111" s="3"/>
+      <c r="C111" s="3"/>
+      <c r="D111" s="30"/>
+      <c r="E111" s="3"/>
+      <c r="F111" s="3"/>
+      <c r="G111" s="3"/>
+      <c r="H111" s="3"/>
+      <c r="I111" s="3"/>
+    </row>
+    <row r="112" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A112" s="3"/>
+      <c r="B112" s="3"/>
+      <c r="C112" s="3"/>
+      <c r="D112" s="30"/>
+      <c r="E112" s="3"/>
+      <c r="F112" s="3"/>
+      <c r="G112" s="3"/>
+      <c r="H112" s="3"/>
+      <c r="I112" s="3"/>
+    </row>
+    <row r="113" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A113" s="3"/>
+      <c r="B113" s="3"/>
+      <c r="C113" s="3"/>
+      <c r="D113" s="30"/>
+      <c r="E113" s="3"/>
+      <c r="F113" s="3"/>
+      <c r="G113" s="3"/>
+      <c r="H113" s="3"/>
+      <c r="I113" s="3"/>
+    </row>
+    <row r="114" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A114" s="3"/>
+      <c r="B114" s="3"/>
+      <c r="C114" s="3"/>
+      <c r="D114" s="30"/>
+      <c r="E114" s="3"/>
+      <c r="F114" s="3"/>
+      <c r="G114" s="3"/>
+      <c r="H114" s="3"/>
+      <c r="I114" s="3"/>
+    </row>
+    <row r="115" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A115" s="3"/>
+      <c r="B115" s="3"/>
+      <c r="C115" s="3"/>
+      <c r="D115" s="30"/>
+      <c r="E115" s="3"/>
+      <c r="F115" s="3"/>
+      <c r="G115" s="3"/>
+      <c r="H115" s="3"/>
+      <c r="I115" s="3"/>
+    </row>
+    <row r="116" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A116" s="3"/>
+      <c r="B116" s="3"/>
+      <c r="C116" s="3"/>
+      <c r="D116" s="30"/>
+      <c r="E116" s="3"/>
+      <c r="F116" s="3"/>
+      <c r="G116" s="3"/>
+      <c r="H116" s="3"/>
+      <c r="I116" s="3"/>
+    </row>
+    <row r="117" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A117" s="3"/>
+      <c r="B117" s="3"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="30"/>
+      <c r="E117" s="3"/>
+      <c r="F117" s="3"/>
+      <c r="G117" s="3"/>
+      <c r="H117" s="3"/>
+      <c r="I117" s="3"/>
+    </row>
+    <row r="118" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A118" s="3"/>
+      <c r="B118" s="3"/>
+      <c r="C118" s="3"/>
+      <c r="D118" s="30"/>
+      <c r="E118" s="3"/>
+      <c r="F118" s="3"/>
+      <c r="G118" s="3"/>
+      <c r="H118" s="3"/>
+      <c r="I118" s="3"/>
+    </row>
+    <row r="119" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A119" s="3"/>
+      <c r="B119" s="3"/>
+      <c r="C119" s="3"/>
+      <c r="D119" s="30"/>
+      <c r="E119" s="3"/>
+      <c r="F119" s="3"/>
+      <c r="G119" s="3"/>
+      <c r="H119" s="3"/>
+      <c r="I119" s="3"/>
+    </row>
+    <row r="120" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A120" s="3"/>
+      <c r="B120" s="3"/>
+      <c r="C120" s="3"/>
+      <c r="D120" s="30"/>
+      <c r="E120" s="3"/>
+      <c r="F120" s="3"/>
+      <c r="G120" s="3"/>
+      <c r="H120" s="3"/>
+      <c r="I120" s="3"/>
+    </row>
+    <row r="121" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A121" s="3"/>
+      <c r="B121" s="3"/>
+      <c r="C121" s="3"/>
+      <c r="D121" s="30"/>
+      <c r="E121" s="3"/>
+      <c r="F121" s="3"/>
+      <c r="G121" s="3"/>
+      <c r="H121" s="3"/>
+      <c r="I121" s="3"/>
+    </row>
+    <row r="122" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A122" s="3"/>
+      <c r="B122" s="3"/>
+      <c r="C122" s="3"/>
+      <c r="D122" s="30"/>
+      <c r="E122" s="3"/>
+      <c r="F122" s="3"/>
+      <c r="G122" s="3"/>
+      <c r="H122" s="3"/>
+      <c r="I122" s="3"/>
+    </row>
+    <row r="123" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A123" s="3"/>
+      <c r="B123" s="3"/>
+      <c r="C123" s="3"/>
+      <c r="D123" s="30"/>
+      <c r="E123" s="3"/>
+      <c r="F123" s="3"/>
+      <c r="G123" s="3"/>
+      <c r="H123" s="3"/>
+      <c r="I123" s="3"/>
+    </row>
+    <row r="124" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A124" s="3"/>
+      <c r="B124" s="3"/>
+      <c r="C124" s="3"/>
+      <c r="D124" s="30"/>
+      <c r="E124" s="3"/>
+      <c r="F124" s="3"/>
+      <c r="G124" s="3"/>
+      <c r="H124" s="3"/>
+      <c r="I124" s="3"/>
+    </row>
+    <row r="125" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A125" s="3"/>
+      <c r="B125" s="3"/>
+      <c r="C125" s="3"/>
+      <c r="D125" s="30"/>
+      <c r="E125" s="3"/>
+      <c r="F125" s="3"/>
+      <c r="G125" s="3"/>
+      <c r="H125" s="3"/>
+      <c r="I125" s="3"/>
+    </row>
+    <row r="126" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A126" s="3"/>
+      <c r="B126" s="3"/>
+      <c r="C126" s="3"/>
+      <c r="D126" s="30"/>
+      <c r="E126" s="3"/>
+      <c r="F126" s="3"/>
+      <c r="G126" s="3"/>
+      <c r="H126" s="3"/>
+      <c r="I126" s="3"/>
+    </row>
+    <row r="127" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A127" s="3"/>
+      <c r="B127" s="3"/>
+      <c r="C127" s="3"/>
+      <c r="D127" s="30"/>
+      <c r="E127" s="3"/>
+      <c r="F127" s="3"/>
+      <c r="G127" s="3"/>
+      <c r="H127" s="3"/>
+      <c r="I127" s="3"/>
+    </row>
+    <row r="128" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A128" s="3"/>
+      <c r="B128" s="3"/>
+      <c r="C128" s="3"/>
+      <c r="D128" s="30"/>
+      <c r="E128" s="3"/>
+      <c r="F128" s="3"/>
+      <c r="G128" s="3"/>
+      <c r="H128" s="3"/>
+      <c r="I128" s="3"/>
+    </row>
+    <row r="129" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A129" s="3"/>
+      <c r="B129" s="3"/>
+      <c r="C129" s="3"/>
+      <c r="D129" s="30"/>
+      <c r="E129" s="3"/>
+      <c r="F129" s="3"/>
+      <c r="G129" s="3"/>
+      <c r="H129" s="3"/>
+      <c r="I129" s="3"/>
+    </row>
+    <row r="130" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A130" s="3"/>
+      <c r="B130" s="3"/>
+      <c r="C130" s="3"/>
+      <c r="D130" s="30"/>
+      <c r="E130" s="3"/>
+      <c r="F130" s="3"/>
+      <c r="G130" s="3"/>
+      <c r="H130" s="3"/>
+      <c r="I130" s="3"/>
+    </row>
+    <row r="131" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A131" s="3"/>
+      <c r="B131" s="3"/>
+      <c r="C131" s="3"/>
+      <c r="D131" s="30"/>
+      <c r="E131" s="3"/>
+      <c r="F131" s="3"/>
+      <c r="G131" s="3"/>
+      <c r="H131" s="3"/>
+      <c r="I131" s="3"/>
+    </row>
+    <row r="132" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A132" s="3"/>
+      <c r="B132" s="3"/>
+      <c r="C132" s="3"/>
+      <c r="D132" s="30"/>
+      <c r="E132" s="3"/>
+      <c r="F132" s="3"/>
+      <c r="G132" s="3"/>
+      <c r="H132" s="3"/>
+      <c r="I132" s="3"/>
+    </row>
+    <row r="133" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A133" s="3"/>
+      <c r="B133" s="3"/>
+      <c r="C133" s="3"/>
+      <c r="D133" s="30"/>
+      <c r="E133" s="3"/>
+      <c r="F133" s="3"/>
+      <c r="G133" s="3"/>
+      <c r="H133" s="3"/>
+      <c r="I133" s="3"/>
+    </row>
+    <row r="134" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A134" s="3"/>
+      <c r="B134" s="3"/>
+      <c r="C134" s="3"/>
+      <c r="D134" s="30"/>
+      <c r="E134" s="3"/>
+      <c r="F134" s="3"/>
+      <c r="G134" s="3"/>
+      <c r="H134" s="3"/>
+      <c r="I134" s="3"/>
+    </row>
+    <row r="135" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A135" s="3"/>
+      <c r="B135" s="3"/>
+      <c r="C135" s="3"/>
+      <c r="D135" s="30"/>
+      <c r="E135" s="3"/>
+      <c r="F135" s="3"/>
+      <c r="G135" s="3"/>
+      <c r="H135" s="3"/>
+      <c r="I135" s="3"/>
+    </row>
+    <row r="136" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A136" s="3"/>
+      <c r="B136" s="3"/>
+      <c r="C136" s="3"/>
+      <c r="D136" s="30"/>
+      <c r="E136" s="3"/>
+      <c r="F136" s="3"/>
+      <c r="G136" s="3"/>
+      <c r="H136" s="3"/>
+      <c r="I136" s="3"/>
+    </row>
+    <row r="137" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A137" s="3"/>
+      <c r="B137" s="3"/>
+      <c r="C137" s="3"/>
+      <c r="D137" s="30"/>
+      <c r="E137" s="3"/>
+      <c r="F137" s="3"/>
+      <c r="G137" s="3"/>
+      <c r="H137" s="3"/>
+      <c r="I137" s="3"/>
+    </row>
+    <row r="138" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A138" s="3"/>
+      <c r="B138" s="3"/>
+      <c r="C138" s="3"/>
+      <c r="D138" s="30"/>
+      <c r="E138" s="3"/>
+      <c r="F138" s="3"/>
+      <c r="G138" s="3"/>
+      <c r="H138" s="3"/>
+      <c r="I138" s="3"/>
+    </row>
+    <row r="139" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A139" s="3"/>
+      <c r="B139" s="3"/>
+      <c r="C139" s="3"/>
+      <c r="D139" s="30"/>
+      <c r="E139" s="3"/>
+      <c r="F139" s="3"/>
+      <c r="G139" s="3"/>
+      <c r="H139" s="3"/>
+      <c r="I139" s="3"/>
+    </row>
+    <row r="140" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A140" s="3"/>
+      <c r="B140" s="3"/>
+      <c r="C140" s="3"/>
+      <c r="D140" s="30"/>
+      <c r="E140" s="3"/>
+      <c r="F140" s="3"/>
+      <c r="G140" s="3"/>
+      <c r="H140" s="3"/>
+      <c r="I140" s="3"/>
+    </row>
+    <row r="141" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A141" s="3"/>
+      <c r="B141" s="3"/>
+      <c r="C141" s="3"/>
+      <c r="D141" s="30"/>
+      <c r="E141" s="3"/>
+      <c r="F141" s="3"/>
+      <c r="G141" s="3"/>
+      <c r="H141" s="3"/>
+      <c r="I141" s="3"/>
+    </row>
+    <row r="142" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A142" s="3"/>
+      <c r="B142" s="3"/>
+      <c r="C142" s="3"/>
+      <c r="D142" s="30"/>
+      <c r="E142" s="3"/>
+      <c r="F142" s="3"/>
+      <c r="G142" s="3"/>
+      <c r="H142" s="3"/>
+      <c r="I142" s="3"/>
+    </row>
+    <row r="143" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A143" s="3"/>
+      <c r="B143" s="3"/>
+      <c r="C143" s="3"/>
+      <c r="D143" s="30"/>
+      <c r="E143" s="3"/>
+      <c r="F143" s="3"/>
+      <c r="G143" s="3"/>
+      <c r="H143" s="3"/>
+      <c r="I143" s="3"/>
+    </row>
+    <row r="144" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A144" s="3"/>
+      <c r="B144" s="3"/>
+      <c r="C144" s="3"/>
+      <c r="D144" s="30"/>
+      <c r="E144" s="3"/>
+      <c r="F144" s="3"/>
+      <c r="G144" s="3"/>
+      <c r="H144" s="3"/>
+      <c r="I144" s="3"/>
+    </row>
+    <row r="145" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A145" s="3"/>
+      <c r="B145" s="3"/>
+      <c r="C145" s="3"/>
+      <c r="D145" s="30"/>
+      <c r="E145" s="3"/>
+      <c r="F145" s="3"/>
+      <c r="G145" s="3"/>
+      <c r="H145" s="3"/>
+      <c r="I145" s="3"/>
+    </row>
+    <row r="146" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A146" s="3"/>
+      <c r="B146" s="3"/>
+      <c r="C146" s="3"/>
+      <c r="D146" s="30"/>
+      <c r="E146" s="3"/>
+      <c r="F146" s="3"/>
+      <c r="G146" s="3"/>
+      <c r="H146" s="3"/>
+      <c r="I146" s="3"/>
+    </row>
+    <row r="147" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A147" s="3"/>
+      <c r="B147" s="3"/>
+      <c r="C147" s="3"/>
+      <c r="D147" s="30"/>
+      <c r="E147" s="3"/>
+      <c r="F147" s="3"/>
+      <c r="G147" s="3"/>
+      <c r="H147" s="3"/>
+      <c r="I147" s="3"/>
+    </row>
+    <row r="148" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A148" s="3"/>
+      <c r="B148" s="3"/>
+      <c r="C148" s="3"/>
+      <c r="D148" s="30"/>
+      <c r="E148" s="3"/>
+      <c r="F148" s="3"/>
+      <c r="G148" s="3"/>
+      <c r="H148" s="3"/>
+      <c r="I148" s="3"/>
+    </row>
+    <row r="149" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A149" s="3"/>
+      <c r="B149" s="3"/>
+      <c r="C149" s="3"/>
+      <c r="D149" s="30"/>
+      <c r="E149" s="3"/>
+      <c r="F149" s="3"/>
+      <c r="G149" s="3"/>
+      <c r="H149" s="3"/>
+      <c r="I149" s="3"/>
+    </row>
+    <row r="150" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A150" s="3"/>
+      <c r="B150" s="3"/>
+      <c r="C150" s="3"/>
+      <c r="D150" s="30"/>
+      <c r="E150" s="3"/>
+      <c r="F150" s="3"/>
+      <c r="G150" s="3"/>
+      <c r="H150" s="3"/>
+      <c r="I150" s="3"/>
+    </row>
+    <row r="151" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A151" s="3"/>
+      <c r="B151" s="3"/>
+      <c r="C151" s="3"/>
+      <c r="D151" s="30"/>
+      <c r="E151" s="3"/>
+      <c r="F151" s="3"/>
+      <c r="G151" s="3"/>
+      <c r="H151" s="3"/>
+      <c r="I151" s="3"/>
+    </row>
+    <row r="152" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A152" s="3"/>
+      <c r="B152" s="3"/>
+      <c r="C152" s="3"/>
+      <c r="D152" s="30"/>
+      <c r="E152" s="3"/>
+      <c r="F152" s="3"/>
+      <c r="G152" s="3"/>
+      <c r="H152" s="3"/>
+      <c r="I152" s="3"/>
+    </row>
+    <row r="153" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A153" s="3"/>
+      <c r="B153" s="3"/>
+      <c r="C153" s="3"/>
+      <c r="D153" s="30"/>
+      <c r="E153" s="3"/>
+      <c r="F153" s="3"/>
+      <c r="G153" s="3"/>
+      <c r="H153" s="3"/>
+      <c r="I153" s="3"/>
+    </row>
+    <row r="154" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A154" s="3"/>
+      <c r="B154" s="3"/>
+      <c r="C154" s="3"/>
+      <c r="D154" s="30"/>
+      <c r="E154" s="3"/>
+      <c r="F154" s="3"/>
+      <c r="G154" s="3"/>
+      <c r="H154" s="3"/>
+      <c r="I154" s="3"/>
+    </row>
+    <row r="155" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A155" s="3"/>
+      <c r="B155" s="3"/>
+      <c r="C155" s="3"/>
+      <c r="D155" s="30"/>
+      <c r="E155" s="3"/>
+      <c r="F155" s="3"/>
+      <c r="G155" s="3"/>
+      <c r="H155" s="3"/>
+      <c r="I155" s="3"/>
+    </row>
+    <row r="156" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A156" s="3"/>
+      <c r="B156" s="3"/>
+      <c r="C156" s="3"/>
+      <c r="D156" s="30"/>
+      <c r="E156" s="3"/>
+      <c r="F156" s="3"/>
+      <c r="G156" s="3"/>
+      <c r="H156" s="3"/>
+      <c r="I156" s="3"/>
+    </row>
+    <row r="157" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A157" s="3"/>
+      <c r="B157" s="3"/>
+      <c r="C157" s="3"/>
+      <c r="D157" s="30"/>
+      <c r="E157" s="3"/>
+      <c r="F157" s="3"/>
+      <c r="G157" s="3"/>
+      <c r="H157" s="3"/>
+      <c r="I157" s="3"/>
+    </row>
+    <row r="158" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A158" s="3"/>
+      <c r="B158" s="3"/>
+      <c r="C158" s="3"/>
+      <c r="D158" s="30"/>
+      <c r="E158" s="3"/>
+      <c r="F158" s="3"/>
+      <c r="G158" s="3"/>
+      <c r="H158" s="3"/>
+      <c r="I158" s="3"/>
+    </row>
+    <row r="159" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A159" s="3"/>
+      <c r="B159" s="3"/>
+      <c r="C159" s="3"/>
+      <c r="D159" s="30"/>
+      <c r="E159" s="3"/>
+      <c r="F159" s="3"/>
+      <c r="G159" s="3"/>
+      <c r="H159" s="3"/>
+      <c r="I159" s="3"/>
+    </row>
+    <row r="160" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A160" s="3"/>
+      <c r="B160" s="3"/>
+      <c r="C160" s="3"/>
+      <c r="D160" s="30"/>
+      <c r="E160" s="3"/>
+      <c r="F160" s="3"/>
+      <c r="G160" s="3"/>
+      <c r="H160" s="3"/>
+      <c r="I160" s="3"/>
+    </row>
+    <row r="161" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A161" s="3"/>
+      <c r="B161" s="3"/>
+      <c r="C161" s="3"/>
+      <c r="D161" s="30"/>
+      <c r="E161" s="3"/>
+      <c r="F161" s="3"/>
+      <c r="G161" s="3"/>
+      <c r="H161" s="3"/>
+      <c r="I161" s="3"/>
+    </row>
+    <row r="162" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A162" s="3"/>
+      <c r="B162" s="3"/>
+      <c r="C162" s="3"/>
+      <c r="D162" s="30"/>
+      <c r="E162" s="3"/>
+      <c r="F162" s="3"/>
+      <c r="G162" s="3"/>
+      <c r="H162" s="3"/>
+      <c r="I162" s="3"/>
+    </row>
+    <row r="163" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A163" s="3"/>
+      <c r="B163" s="3"/>
+      <c r="C163" s="3"/>
+      <c r="D163" s="30"/>
+      <c r="E163" s="3"/>
+      <c r="F163" s="3"/>
+      <c r="G163" s="3"/>
+      <c r="H163" s="3"/>
+      <c r="I163" s="3"/>
+    </row>
+    <row r="164" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A164" s="3"/>
+      <c r="B164" s="3"/>
+      <c r="C164" s="3"/>
+      <c r="D164" s="30"/>
+      <c r="E164" s="3"/>
+      <c r="F164" s="3"/>
+      <c r="G164" s="3"/>
+      <c r="H164" s="3"/>
+      <c r="I164" s="3"/>
+    </row>
+    <row r="165" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A165" s="3"/>
+      <c r="B165" s="3"/>
+      <c r="C165" s="3"/>
+      <c r="D165" s="30"/>
+      <c r="E165" s="3"/>
+      <c r="F165" s="3"/>
+      <c r="G165" s="3"/>
+      <c r="H165" s="3"/>
+      <c r="I165" s="3"/>
+    </row>
+    <row r="166" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A166" s="3"/>
+      <c r="B166" s="3"/>
+      <c r="C166" s="3"/>
+      <c r="D166" s="30"/>
+      <c r="E166" s="3"/>
+      <c r="F166" s="3"/>
+      <c r="G166" s="3"/>
+      <c r="H166" s="3"/>
+      <c r="I166" s="3"/>
+    </row>
+    <row r="167" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A167" s="3"/>
+      <c r="B167" s="3"/>
+      <c r="C167" s="3"/>
+      <c r="D167" s="30"/>
+      <c r="E167" s="3"/>
+      <c r="F167" s="3"/>
+      <c r="G167" s="3"/>
+      <c r="H167" s="3"/>
+      <c r="I167" s="3"/>
+    </row>
+    <row r="168" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A168" s="3"/>
+      <c r="B168" s="3"/>
+      <c r="C168" s="3"/>
+      <c r="D168" s="30"/>
+      <c r="E168" s="3"/>
+      <c r="F168" s="3"/>
+      <c r="G168" s="3"/>
+      <c r="H168" s="3"/>
+      <c r="I168" s="3"/>
+    </row>
+    <row r="169" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A169" s="3"/>
+      <c r="B169" s="3"/>
+      <c r="C169" s="3"/>
+      <c r="D169" s="30"/>
+      <c r="E169" s="3"/>
+      <c r="F169" s="3"/>
+      <c r="G169" s="3"/>
+      <c r="H169" s="3"/>
+      <c r="I169" s="3"/>
+    </row>
+    <row r="170" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A170" s="3"/>
+      <c r="B170" s="3"/>
+      <c r="C170" s="3"/>
+      <c r="D170" s="30"/>
+      <c r="E170" s="3"/>
+      <c r="F170" s="3"/>
+      <c r="G170" s="3"/>
+      <c r="H170" s="3"/>
+      <c r="I170" s="3"/>
+    </row>
+    <row r="171" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A171" s="3"/>
+      <c r="B171" s="3"/>
+      <c r="C171" s="3"/>
+      <c r="D171" s="30"/>
+      <c r="E171" s="3"/>
+      <c r="F171" s="3"/>
+      <c r="G171" s="3"/>
+      <c r="H171" s="3"/>
+      <c r="I171" s="3"/>
+    </row>
+    <row r="172" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A172" s="3"/>
+      <c r="B172" s="3"/>
+      <c r="C172" s="3"/>
+      <c r="D172" s="30"/>
+      <c r="E172" s="3"/>
+      <c r="F172" s="3"/>
+      <c r="G172" s="3"/>
+      <c r="H172" s="3"/>
+      <c r="I172" s="3"/>
+    </row>
+    <row r="173" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A173" s="3"/>
+      <c r="B173" s="3"/>
+      <c r="C173" s="3"/>
+      <c r="D173" s="30"/>
+      <c r="E173" s="3"/>
+      <c r="F173" s="3"/>
+      <c r="G173" s="3"/>
+      <c r="H173" s="3"/>
+      <c r="I173" s="3"/>
+    </row>
+    <row r="174" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A174" s="3"/>
+      <c r="B174" s="3"/>
+      <c r="C174" s="3"/>
+      <c r="D174" s="30"/>
+      <c r="E174" s="3"/>
+      <c r="F174" s="3"/>
+      <c r="G174" s="3"/>
+      <c r="H174" s="3"/>
+      <c r="I174" s="3"/>
+    </row>
+    <row r="175" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A175" s="3"/>
+      <c r="B175" s="3"/>
+      <c r="C175" s="3"/>
+      <c r="D175" s="30"/>
+      <c r="E175" s="3"/>
+      <c r="F175" s="3"/>
+      <c r="G175" s="3"/>
+      <c r="H175" s="3"/>
+      <c r="I175" s="3"/>
+    </row>
+    <row r="176" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A176" s="3"/>
+      <c r="B176" s="3"/>
+      <c r="C176" s="3"/>
+      <c r="D176" s="30"/>
+      <c r="E176" s="3"/>
+      <c r="F176" s="3"/>
+      <c r="G176" s="3"/>
+      <c r="H176" s="3"/>
+      <c r="I176" s="3"/>
+    </row>
+    <row r="177" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A177" s="3"/>
+      <c r="B177" s="3"/>
+      <c r="C177" s="3"/>
+      <c r="D177" s="30"/>
+      <c r="E177" s="3"/>
+      <c r="F177" s="3"/>
+      <c r="G177" s="3"/>
+      <c r="H177" s="3"/>
+      <c r="I177" s="3"/>
+    </row>
+    <row r="178" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A178" s="3"/>
+      <c r="B178" s="3"/>
+      <c r="C178" s="3"/>
+      <c r="D178" s="30"/>
+      <c r="E178" s="3"/>
+      <c r="F178" s="3"/>
+      <c r="G178" s="3"/>
+      <c r="H178" s="3"/>
+      <c r="I178" s="3"/>
+    </row>
+    <row r="179" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A179" s="3"/>
+      <c r="B179" s="3"/>
+      <c r="C179" s="3"/>
+      <c r="D179" s="30"/>
+      <c r="E179" s="3"/>
+      <c r="F179" s="3"/>
+      <c r="G179" s="3"/>
+      <c r="H179" s="3"/>
+      <c r="I179" s="3"/>
+    </row>
+    <row r="180" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A180" s="3"/>
+      <c r="B180" s="3"/>
+      <c r="C180" s="3"/>
+      <c r="D180" s="30"/>
+      <c r="E180" s="3"/>
+      <c r="F180" s="3"/>
+      <c r="G180" s="3"/>
+      <c r="H180" s="3"/>
+      <c r="I180" s="3"/>
+    </row>
+    <row r="181" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A181" s="3"/>
+      <c r="B181" s="3"/>
+      <c r="C181" s="3"/>
+      <c r="D181" s="30"/>
+      <c r="E181" s="3"/>
+      <c r="F181" s="3"/>
+      <c r="G181" s="3"/>
+      <c r="H181" s="3"/>
+      <c r="I181" s="3"/>
+    </row>
+    <row r="182" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A182" s="3"/>
+      <c r="B182" s="3"/>
+      <c r="C182" s="3"/>
+      <c r="D182" s="30"/>
+      <c r="E182" s="3"/>
+      <c r="F182" s="3"/>
+      <c r="G182" s="3"/>
+      <c r="H182" s="3"/>
+      <c r="I182" s="3"/>
+    </row>
+    <row r="183" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A183" s="3"/>
+      <c r="B183" s="3"/>
+      <c r="C183" s="3"/>
+      <c r="D183" s="30"/>
+      <c r="E183" s="3"/>
+      <c r="F183" s="3"/>
+      <c r="G183" s="3"/>
+      <c r="H183" s="3"/>
+      <c r="I183" s="3"/>
+    </row>
+    <row r="184" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A184" s="3"/>
+      <c r="B184" s="3"/>
+      <c r="C184" s="3"/>
+      <c r="D184" s="30"/>
+      <c r="E184" s="3"/>
+      <c r="F184" s="3"/>
+      <c r="G184" s="3"/>
+      <c r="H184" s="3"/>
+      <c r="I184" s="3"/>
+    </row>
+    <row r="185" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A185" s="3"/>
+      <c r="B185" s="3"/>
+      <c r="C185" s="3"/>
+      <c r="D185" s="30"/>
+      <c r="E185" s="3"/>
+      <c r="F185" s="3"/>
+      <c r="G185" s="3"/>
+      <c r="H185" s="3"/>
+      <c r="I185" s="3"/>
+    </row>
+    <row r="186" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A186" s="3"/>
+      <c r="B186" s="3"/>
+      <c r="C186" s="3"/>
+      <c r="D186" s="30"/>
+      <c r="E186" s="3"/>
+      <c r="F186" s="3"/>
+      <c r="G186" s="3"/>
+      <c r="H186" s="3"/>
+      <c r="I186" s="3"/>
+    </row>
+    <row r="187" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A187" s="3"/>
+      <c r="B187" s="3"/>
+      <c r="C187" s="3"/>
+      <c r="D187" s="30"/>
+      <c r="E187" s="3"/>
+      <c r="F187" s="3"/>
+      <c r="G187" s="3"/>
+      <c r="H187" s="3"/>
+      <c r="I187" s="3"/>
+    </row>
+    <row r="188" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A188" s="3"/>
+      <c r="B188" s="3"/>
+      <c r="C188" s="3"/>
+      <c r="D188" s="30"/>
+      <c r="E188" s="3"/>
+      <c r="F188" s="3"/>
+      <c r="G188" s="3"/>
+      <c r="H188" s="3"/>
+      <c r="I188" s="3"/>
+    </row>
+    <row r="189" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A189" s="3"/>
+      <c r="B189" s="3"/>
+      <c r="C189" s="3"/>
+      <c r="D189" s="30"/>
+      <c r="E189" s="3"/>
+      <c r="F189" s="3"/>
+      <c r="G189" s="3"/>
+      <c r="H189" s="3"/>
+      <c r="I189" s="3"/>
+    </row>
+    <row r="190" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A190" s="3"/>
+      <c r="B190" s="3"/>
+      <c r="C190" s="3"/>
+      <c r="D190" s="30"/>
+      <c r="E190" s="3"/>
+      <c r="F190" s="3"/>
+      <c r="G190" s="3"/>
+      <c r="H190" s="3"/>
+      <c r="I190" s="3"/>
+    </row>
+    <row r="191" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A191" s="3"/>
+      <c r="B191" s="3"/>
+      <c r="C191" s="3"/>
+      <c r="D191" s="30"/>
+      <c r="E191" s="3"/>
+      <c r="F191" s="3"/>
+      <c r="G191" s="3"/>
+      <c r="H191" s="3"/>
+      <c r="I191" s="3"/>
+    </row>
+    <row r="192" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A192" s="3"/>
+      <c r="B192" s="3"/>
+      <c r="C192" s="3"/>
+      <c r="D192" s="30"/>
+      <c r="E192" s="3"/>
+      <c r="F192" s="3"/>
+      <c r="G192" s="3"/>
+      <c r="H192" s="3"/>
+      <c r="I192" s="3"/>
+    </row>
+    <row r="193" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A193" s="3"/>
+      <c r="B193" s="3"/>
+      <c r="C193" s="3"/>
+      <c r="D193" s="30"/>
+      <c r="E193" s="3"/>
+      <c r="F193" s="3"/>
+      <c r="G193" s="3"/>
+      <c r="H193" s="3"/>
+      <c r="I193" s="3"/>
+    </row>
+    <row r="194" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A194" s="3"/>
+      <c r="B194" s="3"/>
+      <c r="C194" s="3"/>
+      <c r="D194" s="30"/>
+      <c r="E194" s="3"/>
+      <c r="F194" s="3"/>
+      <c r="G194" s="3"/>
+      <c r="H194" s="3"/>
+      <c r="I194" s="3"/>
+    </row>
+    <row r="195" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A195" s="3"/>
+      <c r="B195" s="3"/>
+      <c r="C195" s="3"/>
+      <c r="D195" s="30"/>
+      <c r="E195" s="3"/>
+      <c r="F195" s="3"/>
+      <c r="G195" s="3"/>
+      <c r="H195" s="3"/>
+      <c r="I195" s="3"/>
+    </row>
+    <row r="196" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A196" s="3"/>
+      <c r="B196" s="3"/>
+      <c r="C196" s="3"/>
+      <c r="D196" s="30"/>
+      <c r="E196" s="3"/>
+      <c r="F196" s="3"/>
+      <c r="G196" s="3"/>
+      <c r="H196" s="3"/>
+      <c r="I196" s="3"/>
+    </row>
+    <row r="197" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A197" s="3"/>
+      <c r="B197" s="3"/>
+      <c r="C197" s="3"/>
+      <c r="D197" s="30"/>
+      <c r="E197" s="3"/>
+      <c r="F197" s="3"/>
+      <c r="G197" s="3"/>
+      <c r="H197" s="3"/>
+      <c r="I197" s="3"/>
+    </row>
+    <row r="198" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A198" s="3"/>
+      <c r="B198" s="3"/>
+      <c r="C198" s="3"/>
+      <c r="D198" s="30"/>
+      <c r="E198" s="3"/>
+      <c r="F198" s="3"/>
+      <c r="G198" s="3"/>
+      <c r="H198" s="3"/>
+      <c r="I198" s="3"/>
+    </row>
+    <row r="199" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A199" s="3"/>
+      <c r="B199" s="3"/>
+      <c r="C199" s="3"/>
+      <c r="D199" s="30"/>
+      <c r="E199" s="3"/>
+      <c r="F199" s="3"/>
+      <c r="G199" s="3"/>
+      <c r="H199" s="3"/>
+      <c r="I199" s="3"/>
+    </row>
+    <row r="200" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A200" s="3"/>
+      <c r="B200" s="3"/>
+      <c r="C200" s="3"/>
+      <c r="D200" s="30"/>
+      <c r="E200" s="3"/>
+      <c r="F200" s="3"/>
+      <c r="G200" s="3"/>
+      <c r="H200" s="3"/>
+      <c r="I200" s="3"/>
+    </row>
+    <row r="201" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A201" s="3"/>
+      <c r="B201" s="3"/>
+      <c r="C201" s="3"/>
+      <c r="D201" s="30"/>
+      <c r="E201" s="3"/>
+      <c r="F201" s="3"/>
+      <c r="G201" s="3"/>
+      <c r="H201" s="3"/>
+      <c r="I201" s="3"/>
+    </row>
+    <row r="202" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A202" s="3"/>
+      <c r="B202" s="3"/>
+      <c r="C202" s="3"/>
+      <c r="D202" s="30"/>
+      <c r="E202" s="3"/>
+      <c r="F202" s="3"/>
+      <c r="G202" s="3"/>
+      <c r="H202" s="3"/>
+      <c r="I202" s="3"/>
+    </row>
+    <row r="203" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A203" s="3"/>
+      <c r="B203" s="3"/>
+      <c r="C203" s="3"/>
+      <c r="D203" s="30"/>
+      <c r="E203" s="3"/>
+      <c r="F203" s="3"/>
+      <c r="G203" s="3"/>
+      <c r="H203" s="3"/>
+      <c r="I203" s="3"/>
+    </row>
+    <row r="204" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A204" s="3"/>
+      <c r="B204" s="3"/>
+      <c r="C204" s="3"/>
+      <c r="D204" s="30"/>
+      <c r="E204" s="3"/>
+      <c r="F204" s="3"/>
+      <c r="G204" s="3"/>
+      <c r="H204" s="3"/>
+      <c r="I204" s="3"/>
+    </row>
+    <row r="205" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A205" s="3"/>
+      <c r="B205" s="3"/>
+      <c r="C205" s="3"/>
+      <c r="D205" s="30"/>
+      <c r="E205" s="3"/>
+      <c r="F205" s="3"/>
+      <c r="G205" s="3"/>
+      <c r="H205" s="3"/>
+      <c r="I205" s="3"/>
+    </row>
+    <row r="206" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A206" s="3"/>
+      <c r="B206" s="3"/>
+      <c r="C206" s="3"/>
+      <c r="D206" s="30"/>
+      <c r="E206" s="3"/>
+      <c r="F206" s="3"/>
+      <c r="G206" s="3"/>
+      <c r="H206" s="3"/>
+      <c r="I206" s="3"/>
+    </row>
+    <row r="207" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A207" s="3"/>
+      <c r="B207" s="3"/>
+      <c r="C207" s="3"/>
+      <c r="D207" s="30"/>
+      <c r="E207" s="3"/>
+      <c r="F207" s="3"/>
+      <c r="G207" s="3"/>
+      <c r="H207" s="3"/>
+      <c r="I207" s="3"/>
+    </row>
+    <row r="208" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A208" s="3"/>
+      <c r="B208" s="3"/>
+      <c r="C208" s="3"/>
+      <c r="D208" s="30"/>
+      <c r="E208" s="3"/>
+      <c r="F208" s="3"/>
+      <c r="G208" s="3"/>
+      <c r="H208" s="3"/>
+      <c r="I208" s="3"/>
+    </row>
+    <row r="209" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A209" s="3"/>
+      <c r="B209" s="3"/>
+      <c r="C209" s="3"/>
+      <c r="D209" s="30"/>
+      <c r="E209" s="3"/>
+      <c r="F209" s="3"/>
+      <c r="G209" s="3"/>
+      <c r="H209" s="3"/>
+      <c r="I209" s="3"/>
+    </row>
+    <row r="210" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A210" s="3"/>
+      <c r="B210" s="3"/>
+      <c r="C210" s="3"/>
+      <c r="D210" s="30"/>
+      <c r="E210" s="3"/>
+      <c r="F210" s="3"/>
+      <c r="G210" s="3"/>
+      <c r="H210" s="3"/>
+      <c r="I210" s="3"/>
+    </row>
+    <row r="211" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A211" s="3"/>
+      <c r="B211" s="3"/>
+      <c r="C211" s="3"/>
+      <c r="D211" s="30"/>
+      <c r="E211" s="3"/>
+      <c r="F211" s="3"/>
+      <c r="G211" s="3"/>
+      <c r="H211" s="3"/>
+      <c r="I211" s="3"/>
+    </row>
+    <row r="212" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A212" s="3"/>
+      <c r="B212" s="3"/>
+      <c r="C212" s="3"/>
+      <c r="D212" s="30"/>
+      <c r="E212" s="3"/>
+      <c r="F212" s="3"/>
+      <c r="G212" s="3"/>
+      <c r="H212" s="3"/>
+      <c r="I212" s="3"/>
+    </row>
+    <row r="213" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A213" s="3"/>
+      <c r="B213" s="3"/>
+      <c r="C213" s="3"/>
+      <c r="D213" s="30"/>
+      <c r="E213" s="3"/>
+      <c r="F213" s="3"/>
+      <c r="G213" s="3"/>
+      <c r="H213" s="3"/>
+      <c r="I213" s="3"/>
+    </row>
+    <row r="214" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A214" s="3"/>
+      <c r="B214" s="3"/>
+      <c r="C214" s="3"/>
+      <c r="D214" s="30"/>
+      <c r="E214" s="3"/>
+      <c r="F214" s="3"/>
+      <c r="G214" s="3"/>
+      <c r="H214" s="3"/>
+      <c r="I214" s="3"/>
+    </row>
+    <row r="215" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A215" s="3"/>
+      <c r="B215" s="3"/>
+      <c r="C215" s="3"/>
+      <c r="D215" s="30"/>
+      <c r="E215" s="3"/>
+      <c r="F215" s="3"/>
+      <c r="G215" s="3"/>
+      <c r="H215" s="3"/>
+      <c r="I215" s="3"/>
+    </row>
+    <row r="216" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A216" s="3"/>
+      <c r="B216" s="3"/>
+      <c r="C216" s="3"/>
+      <c r="D216" s="30"/>
+      <c r="E216" s="3"/>
+      <c r="F216" s="3"/>
+      <c r="G216" s="3"/>
+      <c r="H216" s="3"/>
+      <c r="I216" s="3"/>
+    </row>
+    <row r="217" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A217" s="3"/>
+      <c r="B217" s="3"/>
+      <c r="C217" s="3"/>
+      <c r="D217" s="30"/>
+      <c r="E217" s="3"/>
+      <c r="F217" s="3"/>
+      <c r="G217" s="3"/>
+      <c r="H217" s="3"/>
+      <c r="I217" s="3"/>
+    </row>
+    <row r="218" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A218" s="3"/>
+      <c r="B218" s="3"/>
+      <c r="C218" s="3"/>
+      <c r="D218" s="30"/>
+      <c r="E218" s="3"/>
+      <c r="F218" s="3"/>
+      <c r="G218" s="3"/>
+      <c r="H218" s="3"/>
+      <c r="I218" s="3"/>
+    </row>
+    <row r="219" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A219" s="3"/>
+      <c r="B219" s="3"/>
+      <c r="C219" s="3"/>
+      <c r="D219" s="30"/>
+      <c r="E219" s="3"/>
+      <c r="F219" s="3"/>
+      <c r="G219" s="3"/>
+      <c r="H219" s="3"/>
+      <c r="I219" s="3"/>
+    </row>
+    <row r="220" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A220" s="3"/>
+      <c r="B220" s="3"/>
+      <c r="C220" s="3"/>
+      <c r="D220" s="30"/>
+      <c r="E220" s="3"/>
+      <c r="F220" s="3"/>
+      <c r="G220" s="3"/>
+      <c r="H220" s="3"/>
+      <c r="I220" s="3"/>
+    </row>
+    <row r="221" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A221" s="3"/>
+      <c r="B221" s="3"/>
+      <c r="C221" s="3"/>
+      <c r="D221" s="30"/>
+      <c r="E221" s="3"/>
+      <c r="F221" s="3"/>
+      <c r="G221" s="3"/>
+      <c r="H221" s="3"/>
+      <c r="I221" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tools/luban/Datas/Quests.xlsx
+++ b/tools/luban/Datas/Quests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\tools\luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D44732-FD0C-49A3-B412-E1E6DB27818A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01967A71-CA25-4804-A6D5-30FD18EF42A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="155">
   <si>
     <t>##var</t>
   </si>
@@ -527,6 +527,33 @@
   </si>
   <si>
     <t>使用 {s} 次蓝瓶</t>
+  </si>
+  <si>
+    <t>剑书</t>
+  </si>
+  <si>
+    <t>斧头书</t>
+  </si>
+  <si>
+    <t>长枪书</t>
+  </si>
+  <si>
+    <t>匕首书</t>
+  </si>
+  <si>
+    <t>弓书</t>
+  </si>
+  <si>
+    <t>经验书1</t>
+  </si>
+  <si>
+    <t>经验书2</t>
+  </si>
+  <si>
+    <t>经验书3</t>
+  </si>
+  <si>
+    <t>经验书4</t>
   </si>
 </sst>
 </file>
@@ -709,7 +736,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -726,48 +753,18 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -782,10 +779,36 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3186,10 +3209,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E90DCC31-42D3-4702-A219-47AD15A7D98E}">
-  <dimension ref="A1:I221"/>
+  <dimension ref="A1:I224"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3197,7 +3220,7 @@
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.75" style="31" customWidth="1"/>
+    <col min="4" max="4" width="8.75" customWidth="1"/>
     <col min="5" max="5" width="5.75" customWidth="1"/>
     <col min="6" max="6" width="6.875" customWidth="1"/>
     <col min="7" max="7" width="8.625" customWidth="1"/>
@@ -3214,18 +3237,18 @@
       <c r="C1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="16" t="s">
+      <c r="F1" s="27"/>
+      <c r="G1" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
     </row>
     <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -3237,18 +3260,18 @@
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="2" t="s">
         <v>116</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>106</v>
       </c>
       <c r="F2" s="11"/>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
     </row>
     <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -3256,14 +3279,14 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="29"/>
+      <c r="D3" s="2"/>
       <c r="E3" s="10"/>
       <c r="F3" s="11"/>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
     </row>
     <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
@@ -3275,18 +3298,18 @@
       <c r="C4" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="22" t="s">
+      <c r="F4" s="13"/>
+      <c r="G4" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
     </row>
     <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
@@ -3294,16 +3317,16 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="29"/>
+      <c r="D5" s="2"/>
       <c r="E5" s="10"/>
       <c r="F5" s="11"/>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="I5" s="25"/>
+      <c r="I5" s="15"/>
     </row>
     <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
@@ -3311,16 +3334,16 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="29"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="10"/>
       <c r="F6" s="11"/>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="26" t="s">
+      <c r="H6" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="I6" s="27"/>
+      <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
@@ -3330,7 +3353,7 @@
       <c r="C7" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="3">
@@ -3353,7 +3376,7 @@
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="30"/>
+      <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
@@ -3370,7 +3393,7 @@
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="30"/>
+      <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3" t="s">
@@ -3391,7 +3414,7 @@
       <c r="C10" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E10" s="3">
@@ -3414,7 +3437,7 @@
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="30"/>
+      <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
@@ -3431,11 +3454,11 @@
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="30"/>
+      <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="H12" s="3">
         <v>1</v>
@@ -3448,7 +3471,7 @@
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="30"/>
+      <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
@@ -3465,7 +3488,7 @@
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="30"/>
+      <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3" t="s">
@@ -3482,7 +3505,7 @@
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="30"/>
+      <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3" t="s">
@@ -3503,7 +3526,7 @@
       <c r="C16" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="3" t="s">
         <v>127</v>
       </c>
       <c r="E16" s="3">
@@ -3526,7 +3549,7 @@
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="30"/>
+      <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3" t="s">
@@ -3547,7 +3570,7 @@
       <c r="C18" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="3" t="s">
         <v>128</v>
       </c>
       <c r="E18" s="3">
@@ -3570,7 +3593,7 @@
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="30"/>
+      <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3" t="s">
@@ -3587,11 +3610,11 @@
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="30"/>
+      <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="H20" s="3">
         <v>1</v>
@@ -3608,7 +3631,7 @@
       <c r="C21" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D21" s="30" t="s">
+      <c r="D21" s="3" t="s">
         <v>129</v>
       </c>
       <c r="E21" s="3">
@@ -3631,7 +3654,7 @@
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="30"/>
+      <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3" t="s">
@@ -3648,7 +3671,7 @@
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="30"/>
+      <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3" t="s">
@@ -3665,7 +3688,7 @@
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="30"/>
+      <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3" t="s">
@@ -3686,7 +3709,7 @@
       <c r="C25" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D25" s="30" t="s">
+      <c r="D25" s="3" t="s">
         <v>130</v>
       </c>
       <c r="E25" s="3">
@@ -3709,7 +3732,7 @@
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="30"/>
+      <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3" t="s">
@@ -3726,7 +3749,7 @@
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="30"/>
+      <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3" t="s">
@@ -3743,11 +3766,11 @@
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="30"/>
+      <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="H28" s="3">
         <v>1</v>
@@ -3760,7 +3783,7 @@
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="30"/>
+      <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3" t="s">
@@ -3777,7 +3800,7 @@
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="30"/>
+      <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3" t="s">
@@ -3794,7 +3817,7 @@
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="30"/>
+      <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3" t="s">
@@ -3815,7 +3838,7 @@
       <c r="C32" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D32" s="30" t="s">
+      <c r="D32" s="3" t="s">
         <v>131</v>
       </c>
       <c r="E32" s="3">
@@ -3838,7 +3861,7 @@
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
-      <c r="D33" s="30"/>
+      <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3" t="s">
@@ -3855,7 +3878,7 @@
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
-      <c r="D34" s="30"/>
+      <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3" t="s">
@@ -3872,7 +3895,7 @@
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
-      <c r="D35" s="30"/>
+      <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3" t="s">
@@ -3893,7 +3916,7 @@
       <c r="C36" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D36" s="30" t="s">
+      <c r="D36" s="3" t="s">
         <v>135</v>
       </c>
       <c r="E36" s="3">
@@ -3916,7 +3939,7 @@
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
-      <c r="D37" s="30"/>
+      <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3" t="s">
@@ -3933,7 +3956,7 @@
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
-      <c r="D38" s="30"/>
+      <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3" t="s">
@@ -3950,7 +3973,7 @@
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
-      <c r="D39" s="30"/>
+      <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3" t="s">
@@ -3967,11 +3990,11 @@
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
-      <c r="D40" s="30"/>
+      <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="H40" s="3">
         <v>1</v>
@@ -3982,21 +4005,11 @@
     </row>
     <row r="41" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A41" s="3"/>
-      <c r="B41" s="3">
-        <v>1009</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D41" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="E41" s="3">
-        <v>1</v>
-      </c>
-      <c r="F41" s="3">
-        <v>30</v>
-      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
       <c r="G41" s="3" t="s">
         <v>125</v>
       </c>
@@ -4009,13 +4022,23 @@
     </row>
     <row r="42" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
+      <c r="B42" s="3">
+        <v>1009</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E42" s="3">
+        <v>1</v>
+      </c>
+      <c r="F42" s="3">
+        <v>30</v>
+      </c>
       <c r="G42" s="3" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="H42" s="3">
         <v>1</v>
@@ -4026,23 +4049,13 @@
     </row>
     <row r="43" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A43" s="3"/>
-      <c r="B43" s="3">
-        <v>1010</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D43" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="E43" s="3">
-        <v>1</v>
-      </c>
-      <c r="F43" s="3">
-        <v>30</v>
-      </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
       <c r="G43" s="3" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="H43" s="3">
         <v>1</v>
@@ -4053,13 +4066,23 @@
     </row>
     <row r="44" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
+      <c r="B44" s="3">
+        <v>1010</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1</v>
+      </c>
+      <c r="F44" s="3">
+        <v>30</v>
+      </c>
       <c r="G44" s="3" t="s">
-        <v>103</v>
+        <v>151</v>
       </c>
       <c r="H44" s="3">
         <v>1</v>
@@ -4070,23 +4093,13 @@
     </row>
     <row r="45" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A45" s="3"/>
-      <c r="B45" s="3">
-        <v>1011</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D45" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="E45" s="3">
-        <v>1</v>
-      </c>
-      <c r="F45" s="3">
-        <v>30</v>
-      </c>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
       <c r="G45" s="3" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="H45" s="3">
         <v>1</v>
@@ -4099,7 +4112,7 @@
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
-      <c r="D46" s="30"/>
+      <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3" t="s">
@@ -4114,42 +4127,70 @@
     </row>
     <row r="47" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
+      <c r="B47" s="3">
+        <v>1011</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1</v>
+      </c>
+      <c r="F47" s="3">
+        <v>30</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="H47" s="3">
+        <v>1</v>
+      </c>
+      <c r="I47" s="3">
+        <v>10</v>
+      </c>
     </row>
     <row r="48" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
-      <c r="D48" s="30"/>
+      <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
+      <c r="G48" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="H48" s="3">
+        <v>1</v>
+      </c>
+      <c r="I48" s="3">
+        <v>10</v>
+      </c>
     </row>
     <row r="49" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
-      <c r="D49" s="30"/>
+      <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
+      <c r="G49" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H49" s="3">
+        <v>1</v>
+      </c>
+      <c r="I49" s="3">
+        <v>10</v>
+      </c>
     </row>
     <row r="50" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
-      <c r="D50" s="30"/>
+      <c r="D50" s="3"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
@@ -4160,7 +4201,7 @@
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
-      <c r="D51" s="30"/>
+      <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
@@ -4171,7 +4212,7 @@
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
-      <c r="D52" s="30"/>
+      <c r="D52" s="3"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
@@ -4182,7 +4223,7 @@
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
-      <c r="D53" s="30"/>
+      <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -4193,7 +4234,7 @@
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
-      <c r="D54" s="30"/>
+      <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -4204,7 +4245,7 @@
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
-      <c r="D55" s="30"/>
+      <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
@@ -4215,7 +4256,7 @@
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
-      <c r="D56" s="30"/>
+      <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
@@ -4226,7 +4267,7 @@
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
-      <c r="D57" s="30"/>
+      <c r="D57" s="3"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
@@ -4237,7 +4278,7 @@
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
-      <c r="D58" s="30"/>
+      <c r="D58" s="3"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
@@ -4248,7 +4289,7 @@
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
-      <c r="D59" s="30"/>
+      <c r="D59" s="3"/>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
@@ -4259,7 +4300,7 @@
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
-      <c r="D60" s="30"/>
+      <c r="D60" s="3"/>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
@@ -4270,7 +4311,7 @@
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
-      <c r="D61" s="30"/>
+      <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
@@ -4281,7 +4322,7 @@
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
-      <c r="D62" s="30"/>
+      <c r="D62" s="3"/>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
@@ -4292,7 +4333,7 @@
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
-      <c r="D63" s="30"/>
+      <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
@@ -4303,7 +4344,7 @@
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
-      <c r="D64" s="30"/>
+      <c r="D64" s="3"/>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -4314,7 +4355,7 @@
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
-      <c r="D65" s="30"/>
+      <c r="D65" s="3"/>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
@@ -4325,7 +4366,7 @@
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
-      <c r="D66" s="30"/>
+      <c r="D66" s="3"/>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
@@ -4336,7 +4377,7 @@
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
-      <c r="D67" s="30"/>
+      <c r="D67" s="3"/>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
@@ -4347,7 +4388,7 @@
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
-      <c r="D68" s="30"/>
+      <c r="D68" s="3"/>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
@@ -4358,7 +4399,7 @@
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
-      <c r="D69" s="30"/>
+      <c r="D69" s="3"/>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
@@ -4369,7 +4410,7 @@
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
-      <c r="D70" s="30"/>
+      <c r="D70" s="3"/>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
@@ -4380,7 +4421,7 @@
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
-      <c r="D71" s="30"/>
+      <c r="D71" s="3"/>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
@@ -4391,7 +4432,7 @@
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
-      <c r="D72" s="30"/>
+      <c r="D72" s="3"/>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
@@ -4402,7 +4443,7 @@
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
-      <c r="D73" s="30"/>
+      <c r="D73" s="3"/>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
@@ -4413,7 +4454,7 @@
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
-      <c r="D74" s="30"/>
+      <c r="D74" s="3"/>
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
@@ -4424,7 +4465,7 @@
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
-      <c r="D75" s="30"/>
+      <c r="D75" s="3"/>
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
@@ -4435,7 +4476,7 @@
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
-      <c r="D76" s="30"/>
+      <c r="D76" s="3"/>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
@@ -4446,7 +4487,7 @@
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
-      <c r="D77" s="30"/>
+      <c r="D77" s="3"/>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
@@ -4457,7 +4498,7 @@
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
-      <c r="D78" s="30"/>
+      <c r="D78" s="3"/>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
@@ -4468,7 +4509,7 @@
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
-      <c r="D79" s="30"/>
+      <c r="D79" s="3"/>
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
@@ -4479,7 +4520,7 @@
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
-      <c r="D80" s="30"/>
+      <c r="D80" s="3"/>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
@@ -4490,7 +4531,7 @@
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
-      <c r="D81" s="30"/>
+      <c r="D81" s="3"/>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
@@ -4501,7 +4542,7 @@
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
-      <c r="D82" s="30"/>
+      <c r="D82" s="3"/>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
@@ -4512,7 +4553,7 @@
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
-      <c r="D83" s="30"/>
+      <c r="D83" s="3"/>
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
@@ -4523,7 +4564,7 @@
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
-      <c r="D84" s="30"/>
+      <c r="D84" s="3"/>
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -4534,7 +4575,7 @@
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
-      <c r="D85" s="30"/>
+      <c r="D85" s="3"/>
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
@@ -4545,7 +4586,7 @@
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
-      <c r="D86" s="30"/>
+      <c r="D86" s="3"/>
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
@@ -4556,7 +4597,7 @@
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
-      <c r="D87" s="30"/>
+      <c r="D87" s="3"/>
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
@@ -4567,7 +4608,7 @@
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
-      <c r="D88" s="30"/>
+      <c r="D88" s="3"/>
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
@@ -4578,7 +4619,7 @@
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
-      <c r="D89" s="30"/>
+      <c r="D89" s="3"/>
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
@@ -4589,7 +4630,7 @@
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
-      <c r="D90" s="30"/>
+      <c r="D90" s="3"/>
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
@@ -4600,7 +4641,7 @@
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
-      <c r="D91" s="30"/>
+      <c r="D91" s="3"/>
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
@@ -4611,7 +4652,7 @@
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
-      <c r="D92" s="30"/>
+      <c r="D92" s="3"/>
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
@@ -4622,7 +4663,7 @@
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
-      <c r="D93" s="30"/>
+      <c r="D93" s="3"/>
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
@@ -4633,7 +4674,7 @@
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
-      <c r="D94" s="30"/>
+      <c r="D94" s="3"/>
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -4644,7 +4685,7 @@
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
-      <c r="D95" s="30"/>
+      <c r="D95" s="3"/>
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
@@ -4655,7 +4696,7 @@
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
-      <c r="D96" s="30"/>
+      <c r="D96" s="3"/>
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
@@ -4666,7 +4707,7 @@
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
-      <c r="D97" s="30"/>
+      <c r="D97" s="3"/>
       <c r="E97" s="3"/>
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
@@ -4677,7 +4718,7 @@
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
-      <c r="D98" s="30"/>
+      <c r="D98" s="3"/>
       <c r="E98" s="3"/>
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
@@ -4688,7 +4729,7 @@
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
-      <c r="D99" s="30"/>
+      <c r="D99" s="3"/>
       <c r="E99" s="3"/>
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
@@ -4699,7 +4740,7 @@
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
-      <c r="D100" s="30"/>
+      <c r="D100" s="3"/>
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
@@ -4710,7 +4751,7 @@
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
-      <c r="D101" s="30"/>
+      <c r="D101" s="3"/>
       <c r="E101" s="3"/>
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
@@ -4721,7 +4762,7 @@
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
-      <c r="D102" s="30"/>
+      <c r="D102" s="3"/>
       <c r="E102" s="3"/>
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
@@ -4732,7 +4773,7 @@
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
-      <c r="D103" s="30"/>
+      <c r="D103" s="3"/>
       <c r="E103" s="3"/>
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
@@ -4743,7 +4784,7 @@
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
-      <c r="D104" s="30"/>
+      <c r="D104" s="3"/>
       <c r="E104" s="3"/>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -4754,7 +4795,7 @@
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
-      <c r="D105" s="30"/>
+      <c r="D105" s="3"/>
       <c r="E105" s="3"/>
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
@@ -4765,7 +4806,7 @@
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
-      <c r="D106" s="30"/>
+      <c r="D106" s="3"/>
       <c r="E106" s="3"/>
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
@@ -4776,7 +4817,7 @@
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
-      <c r="D107" s="30"/>
+      <c r="D107" s="3"/>
       <c r="E107" s="3"/>
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
@@ -4787,7 +4828,7 @@
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
-      <c r="D108" s="30"/>
+      <c r="D108" s="3"/>
       <c r="E108" s="3"/>
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
@@ -4798,7 +4839,7 @@
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
-      <c r="D109" s="30"/>
+      <c r="D109" s="3"/>
       <c r="E109" s="3"/>
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
@@ -4809,7 +4850,7 @@
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
-      <c r="D110" s="30"/>
+      <c r="D110" s="3"/>
       <c r="E110" s="3"/>
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
@@ -4820,7 +4861,7 @@
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
-      <c r="D111" s="30"/>
+      <c r="D111" s="3"/>
       <c r="E111" s="3"/>
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
@@ -4831,7 +4872,7 @@
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
-      <c r="D112" s="30"/>
+      <c r="D112" s="3"/>
       <c r="E112" s="3"/>
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
@@ -4842,7 +4883,7 @@
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
-      <c r="D113" s="30"/>
+      <c r="D113" s="3"/>
       <c r="E113" s="3"/>
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
@@ -4853,7 +4894,7 @@
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
-      <c r="D114" s="30"/>
+      <c r="D114" s="3"/>
       <c r="E114" s="3"/>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -4864,7 +4905,7 @@
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
-      <c r="D115" s="30"/>
+      <c r="D115" s="3"/>
       <c r="E115" s="3"/>
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
@@ -4875,7 +4916,7 @@
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
-      <c r="D116" s="30"/>
+      <c r="D116" s="3"/>
       <c r="E116" s="3"/>
       <c r="F116" s="3"/>
       <c r="G116" s="3"/>
@@ -4886,7 +4927,7 @@
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
-      <c r="D117" s="30"/>
+      <c r="D117" s="3"/>
       <c r="E117" s="3"/>
       <c r="F117" s="3"/>
       <c r="G117" s="3"/>
@@ -4897,7 +4938,7 @@
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
-      <c r="D118" s="30"/>
+      <c r="D118" s="3"/>
       <c r="E118" s="3"/>
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
@@ -4908,7 +4949,7 @@
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
-      <c r="D119" s="30"/>
+      <c r="D119" s="3"/>
       <c r="E119" s="3"/>
       <c r="F119" s="3"/>
       <c r="G119" s="3"/>
@@ -4919,7 +4960,7 @@
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
-      <c r="D120" s="30"/>
+      <c r="D120" s="3"/>
       <c r="E120" s="3"/>
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
@@ -4930,7 +4971,7 @@
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
-      <c r="D121" s="30"/>
+      <c r="D121" s="3"/>
       <c r="E121" s="3"/>
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
@@ -4941,7 +4982,7 @@
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
-      <c r="D122" s="30"/>
+      <c r="D122" s="3"/>
       <c r="E122" s="3"/>
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
@@ -4952,7 +4993,7 @@
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
-      <c r="D123" s="30"/>
+      <c r="D123" s="3"/>
       <c r="E123" s="3"/>
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
@@ -4963,7 +5004,7 @@
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
-      <c r="D124" s="30"/>
+      <c r="D124" s="3"/>
       <c r="E124" s="3"/>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -4974,7 +5015,7 @@
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
-      <c r="D125" s="30"/>
+      <c r="D125" s="3"/>
       <c r="E125" s="3"/>
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
@@ -4985,7 +5026,7 @@
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
-      <c r="D126" s="30"/>
+      <c r="D126" s="3"/>
       <c r="E126" s="3"/>
       <c r="F126" s="3"/>
       <c r="G126" s="3"/>
@@ -4996,7 +5037,7 @@
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
-      <c r="D127" s="30"/>
+      <c r="D127" s="3"/>
       <c r="E127" s="3"/>
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
@@ -5007,7 +5048,7 @@
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
-      <c r="D128" s="30"/>
+      <c r="D128" s="3"/>
       <c r="E128" s="3"/>
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
@@ -5018,7 +5059,7 @@
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
-      <c r="D129" s="30"/>
+      <c r="D129" s="3"/>
       <c r="E129" s="3"/>
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
@@ -5029,7 +5070,7 @@
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
-      <c r="D130" s="30"/>
+      <c r="D130" s="3"/>
       <c r="E130" s="3"/>
       <c r="F130" s="3"/>
       <c r="G130" s="3"/>
@@ -5040,7 +5081,7 @@
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
-      <c r="D131" s="30"/>
+      <c r="D131" s="3"/>
       <c r="E131" s="3"/>
       <c r="F131" s="3"/>
       <c r="G131" s="3"/>
@@ -5051,7 +5092,7 @@
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
-      <c r="D132" s="30"/>
+      <c r="D132" s="3"/>
       <c r="E132" s="3"/>
       <c r="F132" s="3"/>
       <c r="G132" s="3"/>
@@ -5062,7 +5103,7 @@
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
-      <c r="D133" s="30"/>
+      <c r="D133" s="3"/>
       <c r="E133" s="3"/>
       <c r="F133" s="3"/>
       <c r="G133" s="3"/>
@@ -5073,7 +5114,7 @@
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
-      <c r="D134" s="30"/>
+      <c r="D134" s="3"/>
       <c r="E134" s="3"/>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -5084,7 +5125,7 @@
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
-      <c r="D135" s="30"/>
+      <c r="D135" s="3"/>
       <c r="E135" s="3"/>
       <c r="F135" s="3"/>
       <c r="G135" s="3"/>
@@ -5095,7 +5136,7 @@
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
-      <c r="D136" s="30"/>
+      <c r="D136" s="3"/>
       <c r="E136" s="3"/>
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
@@ -5106,7 +5147,7 @@
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
-      <c r="D137" s="30"/>
+      <c r="D137" s="3"/>
       <c r="E137" s="3"/>
       <c r="F137" s="3"/>
       <c r="G137" s="3"/>
@@ -5117,7 +5158,7 @@
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
-      <c r="D138" s="30"/>
+      <c r="D138" s="3"/>
       <c r="E138" s="3"/>
       <c r="F138" s="3"/>
       <c r="G138" s="3"/>
@@ -5128,7 +5169,7 @@
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
-      <c r="D139" s="30"/>
+      <c r="D139" s="3"/>
       <c r="E139" s="3"/>
       <c r="F139" s="3"/>
       <c r="G139" s="3"/>
@@ -5139,7 +5180,7 @@
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
-      <c r="D140" s="30"/>
+      <c r="D140" s="3"/>
       <c r="E140" s="3"/>
       <c r="F140" s="3"/>
       <c r="G140" s="3"/>
@@ -5150,7 +5191,7 @@
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
-      <c r="D141" s="30"/>
+      <c r="D141" s="3"/>
       <c r="E141" s="3"/>
       <c r="F141" s="3"/>
       <c r="G141" s="3"/>
@@ -5161,7 +5202,7 @@
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
-      <c r="D142" s="30"/>
+      <c r="D142" s="3"/>
       <c r="E142" s="3"/>
       <c r="F142" s="3"/>
       <c r="G142" s="3"/>
@@ -5172,7 +5213,7 @@
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
-      <c r="D143" s="30"/>
+      <c r="D143" s="3"/>
       <c r="E143" s="3"/>
       <c r="F143" s="3"/>
       <c r="G143" s="3"/>
@@ -5183,7 +5224,7 @@
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
-      <c r="D144" s="30"/>
+      <c r="D144" s="3"/>
       <c r="E144" s="3"/>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -5194,7 +5235,7 @@
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
-      <c r="D145" s="30"/>
+      <c r="D145" s="3"/>
       <c r="E145" s="3"/>
       <c r="F145" s="3"/>
       <c r="G145" s="3"/>
@@ -5205,7 +5246,7 @@
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
-      <c r="D146" s="30"/>
+      <c r="D146" s="3"/>
       <c r="E146" s="3"/>
       <c r="F146" s="3"/>
       <c r="G146" s="3"/>
@@ -5216,7 +5257,7 @@
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
-      <c r="D147" s="30"/>
+      <c r="D147" s="3"/>
       <c r="E147" s="3"/>
       <c r="F147" s="3"/>
       <c r="G147" s="3"/>
@@ -5227,7 +5268,7 @@
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
-      <c r="D148" s="30"/>
+      <c r="D148" s="3"/>
       <c r="E148" s="3"/>
       <c r="F148" s="3"/>
       <c r="G148" s="3"/>
@@ -5238,7 +5279,7 @@
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
-      <c r="D149" s="30"/>
+      <c r="D149" s="3"/>
       <c r="E149" s="3"/>
       <c r="F149" s="3"/>
       <c r="G149" s="3"/>
@@ -5249,7 +5290,7 @@
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
-      <c r="D150" s="30"/>
+      <c r="D150" s="3"/>
       <c r="E150" s="3"/>
       <c r="F150" s="3"/>
       <c r="G150" s="3"/>
@@ -5260,7 +5301,7 @@
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
-      <c r="D151" s="30"/>
+      <c r="D151" s="3"/>
       <c r="E151" s="3"/>
       <c r="F151" s="3"/>
       <c r="G151" s="3"/>
@@ -5271,7 +5312,7 @@
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
-      <c r="D152" s="30"/>
+      <c r="D152" s="3"/>
       <c r="E152" s="3"/>
       <c r="F152" s="3"/>
       <c r="G152" s="3"/>
@@ -5282,7 +5323,7 @@
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
-      <c r="D153" s="30"/>
+      <c r="D153" s="3"/>
       <c r="E153" s="3"/>
       <c r="F153" s="3"/>
       <c r="G153" s="3"/>
@@ -5293,7 +5334,7 @@
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
-      <c r="D154" s="30"/>
+      <c r="D154" s="3"/>
       <c r="E154" s="3"/>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -5304,7 +5345,7 @@
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
-      <c r="D155" s="30"/>
+      <c r="D155" s="3"/>
       <c r="E155" s="3"/>
       <c r="F155" s="3"/>
       <c r="G155" s="3"/>
@@ -5315,7 +5356,7 @@
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
-      <c r="D156" s="30"/>
+      <c r="D156" s="3"/>
       <c r="E156" s="3"/>
       <c r="F156" s="3"/>
       <c r="G156" s="3"/>
@@ -5326,7 +5367,7 @@
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
-      <c r="D157" s="30"/>
+      <c r="D157" s="3"/>
       <c r="E157" s="3"/>
       <c r="F157" s="3"/>
       <c r="G157" s="3"/>
@@ -5337,7 +5378,7 @@
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
-      <c r="D158" s="30"/>
+      <c r="D158" s="3"/>
       <c r="E158" s="3"/>
       <c r="F158" s="3"/>
       <c r="G158" s="3"/>
@@ -5348,7 +5389,7 @@
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
-      <c r="D159" s="30"/>
+      <c r="D159" s="3"/>
       <c r="E159" s="3"/>
       <c r="F159" s="3"/>
       <c r="G159" s="3"/>
@@ -5359,7 +5400,7 @@
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
-      <c r="D160" s="30"/>
+      <c r="D160" s="3"/>
       <c r="E160" s="3"/>
       <c r="F160" s="3"/>
       <c r="G160" s="3"/>
@@ -5370,7 +5411,7 @@
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
-      <c r="D161" s="30"/>
+      <c r="D161" s="3"/>
       <c r="E161" s="3"/>
       <c r="F161" s="3"/>
       <c r="G161" s="3"/>
@@ -5381,7 +5422,7 @@
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
-      <c r="D162" s="30"/>
+      <c r="D162" s="3"/>
       <c r="E162" s="3"/>
       <c r="F162" s="3"/>
       <c r="G162" s="3"/>
@@ -5392,7 +5433,7 @@
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
-      <c r="D163" s="30"/>
+      <c r="D163" s="3"/>
       <c r="E163" s="3"/>
       <c r="F163" s="3"/>
       <c r="G163" s="3"/>
@@ -5403,7 +5444,7 @@
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
-      <c r="D164" s="30"/>
+      <c r="D164" s="3"/>
       <c r="E164" s="3"/>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -5414,7 +5455,7 @@
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
-      <c r="D165" s="30"/>
+      <c r="D165" s="3"/>
       <c r="E165" s="3"/>
       <c r="F165" s="3"/>
       <c r="G165" s="3"/>
@@ -5425,7 +5466,7 @@
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
-      <c r="D166" s="30"/>
+      <c r="D166" s="3"/>
       <c r="E166" s="3"/>
       <c r="F166" s="3"/>
       <c r="G166" s="3"/>
@@ -5436,7 +5477,7 @@
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
-      <c r="D167" s="30"/>
+      <c r="D167" s="3"/>
       <c r="E167" s="3"/>
       <c r="F167" s="3"/>
       <c r="G167" s="3"/>
@@ -5447,7 +5488,7 @@
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
-      <c r="D168" s="30"/>
+      <c r="D168" s="3"/>
       <c r="E168" s="3"/>
       <c r="F168" s="3"/>
       <c r="G168" s="3"/>
@@ -5458,7 +5499,7 @@
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
-      <c r="D169" s="30"/>
+      <c r="D169" s="3"/>
       <c r="E169" s="3"/>
       <c r="F169" s="3"/>
       <c r="G169" s="3"/>
@@ -5469,7 +5510,7 @@
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
-      <c r="D170" s="30"/>
+      <c r="D170" s="3"/>
       <c r="E170" s="3"/>
       <c r="F170" s="3"/>
       <c r="G170" s="3"/>
@@ -5480,7 +5521,7 @@
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
-      <c r="D171" s="30"/>
+      <c r="D171" s="3"/>
       <c r="E171" s="3"/>
       <c r="F171" s="3"/>
       <c r="G171" s="3"/>
@@ -5491,7 +5532,7 @@
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
-      <c r="D172" s="30"/>
+      <c r="D172" s="3"/>
       <c r="E172" s="3"/>
       <c r="F172" s="3"/>
       <c r="G172" s="3"/>
@@ -5502,7 +5543,7 @@
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
-      <c r="D173" s="30"/>
+      <c r="D173" s="3"/>
       <c r="E173" s="3"/>
       <c r="F173" s="3"/>
       <c r="G173" s="3"/>
@@ -5513,7 +5554,7 @@
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
-      <c r="D174" s="30"/>
+      <c r="D174" s="3"/>
       <c r="E174" s="3"/>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -5524,7 +5565,7 @@
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
-      <c r="D175" s="30"/>
+      <c r="D175" s="3"/>
       <c r="E175" s="3"/>
       <c r="F175" s="3"/>
       <c r="G175" s="3"/>
@@ -5535,7 +5576,7 @@
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
-      <c r="D176" s="30"/>
+      <c r="D176" s="3"/>
       <c r="E176" s="3"/>
       <c r="F176" s="3"/>
       <c r="G176" s="3"/>
@@ -5546,7 +5587,7 @@
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
-      <c r="D177" s="30"/>
+      <c r="D177" s="3"/>
       <c r="E177" s="3"/>
       <c r="F177" s="3"/>
       <c r="G177" s="3"/>
@@ -5557,7 +5598,7 @@
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
-      <c r="D178" s="30"/>
+      <c r="D178" s="3"/>
       <c r="E178" s="3"/>
       <c r="F178" s="3"/>
       <c r="G178" s="3"/>
@@ -5568,7 +5609,7 @@
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
-      <c r="D179" s="30"/>
+      <c r="D179" s="3"/>
       <c r="E179" s="3"/>
       <c r="F179" s="3"/>
       <c r="G179" s="3"/>
@@ -5579,7 +5620,7 @@
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
-      <c r="D180" s="30"/>
+      <c r="D180" s="3"/>
       <c r="E180" s="3"/>
       <c r="F180" s="3"/>
       <c r="G180" s="3"/>
@@ -5590,7 +5631,7 @@
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
-      <c r="D181" s="30"/>
+      <c r="D181" s="3"/>
       <c r="E181" s="3"/>
       <c r="F181" s="3"/>
       <c r="G181" s="3"/>
@@ -5601,7 +5642,7 @@
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
-      <c r="D182" s="30"/>
+      <c r="D182" s="3"/>
       <c r="E182" s="3"/>
       <c r="F182" s="3"/>
       <c r="G182" s="3"/>
@@ -5612,7 +5653,7 @@
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
-      <c r="D183" s="30"/>
+      <c r="D183" s="3"/>
       <c r="E183" s="3"/>
       <c r="F183" s="3"/>
       <c r="G183" s="3"/>
@@ -5623,7 +5664,7 @@
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
-      <c r="D184" s="30"/>
+      <c r="D184" s="3"/>
       <c r="E184" s="3"/>
       <c r="F184" s="3"/>
       <c r="G184" s="3"/>
@@ -5634,7 +5675,7 @@
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
-      <c r="D185" s="30"/>
+      <c r="D185" s="3"/>
       <c r="E185" s="3"/>
       <c r="F185" s="3"/>
       <c r="G185" s="3"/>
@@ -5645,7 +5686,7 @@
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
-      <c r="D186" s="30"/>
+      <c r="D186" s="3"/>
       <c r="E186" s="3"/>
       <c r="F186" s="3"/>
       <c r="G186" s="3"/>
@@ -5656,7 +5697,7 @@
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
-      <c r="D187" s="30"/>
+      <c r="D187" s="3"/>
       <c r="E187" s="3"/>
       <c r="F187" s="3"/>
       <c r="G187" s="3"/>
@@ -5667,7 +5708,7 @@
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
-      <c r="D188" s="30"/>
+      <c r="D188" s="3"/>
       <c r="E188" s="3"/>
       <c r="F188" s="3"/>
       <c r="G188" s="3"/>
@@ -5678,7 +5719,7 @@
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
-      <c r="D189" s="30"/>
+      <c r="D189" s="3"/>
       <c r="E189" s="3"/>
       <c r="F189" s="3"/>
       <c r="G189" s="3"/>
@@ -5689,7 +5730,7 @@
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
-      <c r="D190" s="30"/>
+      <c r="D190" s="3"/>
       <c r="E190" s="3"/>
       <c r="F190" s="3"/>
       <c r="G190" s="3"/>
@@ -5700,7 +5741,7 @@
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
-      <c r="D191" s="30"/>
+      <c r="D191" s="3"/>
       <c r="E191" s="3"/>
       <c r="F191" s="3"/>
       <c r="G191" s="3"/>
@@ -5711,7 +5752,7 @@
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
-      <c r="D192" s="30"/>
+      <c r="D192" s="3"/>
       <c r="E192" s="3"/>
       <c r="F192" s="3"/>
       <c r="G192" s="3"/>
@@ -5722,7 +5763,7 @@
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
-      <c r="D193" s="30"/>
+      <c r="D193" s="3"/>
       <c r="E193" s="3"/>
       <c r="F193" s="3"/>
       <c r="G193" s="3"/>
@@ -5733,7 +5774,7 @@
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
-      <c r="D194" s="30"/>
+      <c r="D194" s="3"/>
       <c r="E194" s="3"/>
       <c r="F194" s="3"/>
       <c r="G194" s="3"/>
@@ -5744,7 +5785,7 @@
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
-      <c r="D195" s="30"/>
+      <c r="D195" s="3"/>
       <c r="E195" s="3"/>
       <c r="F195" s="3"/>
       <c r="G195" s="3"/>
@@ -5755,7 +5796,7 @@
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
-      <c r="D196" s="30"/>
+      <c r="D196" s="3"/>
       <c r="E196" s="3"/>
       <c r="F196" s="3"/>
       <c r="G196" s="3"/>
@@ -5766,7 +5807,7 @@
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
-      <c r="D197" s="30"/>
+      <c r="D197" s="3"/>
       <c r="E197" s="3"/>
       <c r="F197" s="3"/>
       <c r="G197" s="3"/>
@@ -5777,7 +5818,7 @@
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
-      <c r="D198" s="30"/>
+      <c r="D198" s="3"/>
       <c r="E198" s="3"/>
       <c r="F198" s="3"/>
       <c r="G198" s="3"/>
@@ -5788,7 +5829,7 @@
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
-      <c r="D199" s="30"/>
+      <c r="D199" s="3"/>
       <c r="E199" s="3"/>
       <c r="F199" s="3"/>
       <c r="G199" s="3"/>
@@ -5799,7 +5840,7 @@
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
-      <c r="D200" s="30"/>
+      <c r="D200" s="3"/>
       <c r="E200" s="3"/>
       <c r="F200" s="3"/>
       <c r="G200" s="3"/>
@@ -5810,7 +5851,7 @@
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
-      <c r="D201" s="30"/>
+      <c r="D201" s="3"/>
       <c r="E201" s="3"/>
       <c r="F201" s="3"/>
       <c r="G201" s="3"/>
@@ -5821,7 +5862,7 @@
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
-      <c r="D202" s="30"/>
+      <c r="D202" s="3"/>
       <c r="E202" s="3"/>
       <c r="F202" s="3"/>
       <c r="G202" s="3"/>
@@ -5832,7 +5873,7 @@
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
-      <c r="D203" s="30"/>
+      <c r="D203" s="3"/>
       <c r="E203" s="3"/>
       <c r="F203" s="3"/>
       <c r="G203" s="3"/>
@@ -5843,7 +5884,7 @@
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
-      <c r="D204" s="30"/>
+      <c r="D204" s="3"/>
       <c r="E204" s="3"/>
       <c r="F204" s="3"/>
       <c r="G204" s="3"/>
@@ -5854,7 +5895,7 @@
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
-      <c r="D205" s="30"/>
+      <c r="D205" s="3"/>
       <c r="E205" s="3"/>
       <c r="F205" s="3"/>
       <c r="G205" s="3"/>
@@ -5865,7 +5906,7 @@
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
-      <c r="D206" s="30"/>
+      <c r="D206" s="3"/>
       <c r="E206" s="3"/>
       <c r="F206" s="3"/>
       <c r="G206" s="3"/>
@@ -5876,7 +5917,7 @@
       <c r="A207" s="3"/>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
-      <c r="D207" s="30"/>
+      <c r="D207" s="3"/>
       <c r="E207" s="3"/>
       <c r="F207" s="3"/>
       <c r="G207" s="3"/>
@@ -5887,7 +5928,7 @@
       <c r="A208" s="3"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
-      <c r="D208" s="30"/>
+      <c r="D208" s="3"/>
       <c r="E208" s="3"/>
       <c r="F208" s="3"/>
       <c r="G208" s="3"/>
@@ -5898,7 +5939,7 @@
       <c r="A209" s="3"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
-      <c r="D209" s="30"/>
+      <c r="D209" s="3"/>
       <c r="E209" s="3"/>
       <c r="F209" s="3"/>
       <c r="G209" s="3"/>
@@ -5909,7 +5950,7 @@
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
-      <c r="D210" s="30"/>
+      <c r="D210" s="3"/>
       <c r="E210" s="3"/>
       <c r="F210" s="3"/>
       <c r="G210" s="3"/>
@@ -5920,7 +5961,7 @@
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
-      <c r="D211" s="30"/>
+      <c r="D211" s="3"/>
       <c r="E211" s="3"/>
       <c r="F211" s="3"/>
       <c r="G211" s="3"/>
@@ -5931,7 +5972,7 @@
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
-      <c r="D212" s="30"/>
+      <c r="D212" s="3"/>
       <c r="E212" s="3"/>
       <c r="F212" s="3"/>
       <c r="G212" s="3"/>
@@ -5942,7 +5983,7 @@
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
-      <c r="D213" s="30"/>
+      <c r="D213" s="3"/>
       <c r="E213" s="3"/>
       <c r="F213" s="3"/>
       <c r="G213" s="3"/>
@@ -5953,7 +5994,7 @@
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
-      <c r="D214" s="30"/>
+      <c r="D214" s="3"/>
       <c r="E214" s="3"/>
       <c r="F214" s="3"/>
       <c r="G214" s="3"/>
@@ -5964,7 +6005,7 @@
       <c r="A215" s="3"/>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
-      <c r="D215" s="30"/>
+      <c r="D215" s="3"/>
       <c r="E215" s="3"/>
       <c r="F215" s="3"/>
       <c r="G215" s="3"/>
@@ -5975,7 +6016,7 @@
       <c r="A216" s="3"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
-      <c r="D216" s="30"/>
+      <c r="D216" s="3"/>
       <c r="E216" s="3"/>
       <c r="F216" s="3"/>
       <c r="G216" s="3"/>
@@ -5986,7 +6027,7 @@
       <c r="A217" s="3"/>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
-      <c r="D217" s="30"/>
+      <c r="D217" s="3"/>
       <c r="E217" s="3"/>
       <c r="F217" s="3"/>
       <c r="G217" s="3"/>
@@ -5997,7 +6038,7 @@
       <c r="A218" s="3"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
-      <c r="D218" s="30"/>
+      <c r="D218" s="3"/>
       <c r="E218" s="3"/>
       <c r="F218" s="3"/>
       <c r="G218" s="3"/>
@@ -6008,7 +6049,7 @@
       <c r="A219" s="3"/>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
-      <c r="D219" s="30"/>
+      <c r="D219" s="3"/>
       <c r="E219" s="3"/>
       <c r="F219" s="3"/>
       <c r="G219" s="3"/>
@@ -6019,7 +6060,7 @@
       <c r="A220" s="3"/>
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
-      <c r="D220" s="30"/>
+      <c r="D220" s="3"/>
       <c r="E220" s="3"/>
       <c r="F220" s="3"/>
       <c r="G220" s="3"/>
@@ -6030,27 +6071,60 @@
       <c r="A221" s="3"/>
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
-      <c r="D221" s="30"/>
+      <c r="D221" s="3"/>
       <c r="E221" s="3"/>
       <c r="F221" s="3"/>
       <c r="G221" s="3"/>
       <c r="H221" s="3"/>
       <c r="I221" s="3"/>
     </row>
+    <row r="222" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A222" s="3"/>
+      <c r="B222" s="3"/>
+      <c r="C222" s="3"/>
+      <c r="D222" s="3"/>
+      <c r="E222" s="3"/>
+      <c r="F222" s="3"/>
+      <c r="G222" s="3"/>
+      <c r="H222" s="3"/>
+      <c r="I222" s="3"/>
+    </row>
+    <row r="223" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A223" s="3"/>
+      <c r="B223" s="3"/>
+      <c r="C223" s="3"/>
+      <c r="D223" s="3"/>
+      <c r="E223" s="3"/>
+      <c r="F223" s="3"/>
+      <c r="G223" s="3"/>
+      <c r="H223" s="3"/>
+      <c r="I223" s="3"/>
+    </row>
+    <row r="224" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A224" s="3"/>
+      <c r="B224" s="3"/>
+      <c r="C224" s="3"/>
+      <c r="D224" s="3"/>
+      <c r="E224" s="3"/>
+      <c r="F224" s="3"/>
+      <c r="G224" s="3"/>
+      <c r="H224" s="3"/>
+      <c r="I224" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F2"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="H6:I6"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E2:F2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
